--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB14527-BE18-4237-8F20-0A90FC3D80AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19068" windowHeight="7716" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="Bug Metrics" sheetId="2" r:id="rId2"/>
-    <sheet name="Bug Log" sheetId="3" r:id="rId3"/>
+    <sheet name="Bug Metrics" sheetId="4" r:id="rId2"/>
+    <sheet name="Bug Metric Guide" sheetId="2" r:id="rId3"/>
+    <sheet name="Bug Log Guide" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
   <si>
     <t>Bug Log</t>
   </si>
@@ -226,11 +236,35 @@
   <si>
     <t>Retreive output table is not aligned properly</t>
   </si>
+  <si>
+    <t xml:space="preserve">Continue with current schedule development, Project Manager reschedule a session for bug fixing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP Error, with ideal error output as login failed due to incorrect username and password. </t>
+  </si>
+  <si>
+    <t>Bootstrap (Upload)</t>
+  </si>
+  <si>
+    <t>System output empty blank space, when uploading data.zip files with missing mandatory CSV files, when uploading data.zip files with missing mandatory CSV files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue with current schedule development, Project Manager reschedule a session for bug fixing. Impact not deem as high due to initial phase and bootstrap validation is under implementing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course.csv - Row 2 - Exam Date Column (Blank Exam Date) - Blank data will cause PHP error as validation is unable to compare with data course the system to generator error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course.csv - Row 3 - Exam Date Column (Blank Exam Date) - Alphanumeric exam date will cause PHP error as validation is unable to compare with data course the system to generator error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course.csv - Row 4 - Exam Date Column (Blank Exam Date) - Date with space will cause PHP error as validation is unable to compare with data course the system to generator error </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -377,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,31 +491,40 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -584,6 +627,26 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -896,11 +959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -975,10 +1038,230 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1AF14-9795-4A94-9B98-2B7CB2042024}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="30" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="84.21875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="66.109375" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>2</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
+        <v>3</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="32">
+        <v>1</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>5</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H1:H2">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -996,16 +1279,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1053,7 +1336,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="35">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -1082,7 +1365,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1105,7 +1388,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1128,7 +1411,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1151,7 +1434,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1174,7 +1457,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1197,7 +1480,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="35">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -1226,7 +1509,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1249,7 +1532,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1272,7 +1555,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1295,7 +1578,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1318,7 +1601,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1341,7 +1624,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1364,7 +1647,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="35">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -1393,7 +1676,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1416,7 +1699,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1439,7 +1722,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1462,7 +1745,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="35">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -1490,7 +1773,7 @@
       <c r="F21" s="21">
         <v>5</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1513,7 +1796,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1536,7 +1819,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -6666,12 +6949,12 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E24 E30:E200">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E24 E30:E200" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Critical,High,Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6679,12 +6962,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6701,16 +6987,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -6734,25 +7020,25 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <f>'Bug Metrics'!$A3</f>
+        <f>'Bug Metric Guide'!$A3</f>
         <v>1</v>
       </c>
       <c r="B3" s="9">
-        <f>'Bug Metrics'!$B3</f>
+        <f>'Bug Metric Guide'!$B3</f>
         <v>2</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f>'Bug Metrics'!$C3</f>
+        <f>'Bug Metric Guide'!$C3</f>
         <v>Login (User)</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f>'Bug Metrics'!$D3</f>
+        <f>'Bug Metric Guide'!$D3</f>
         <v>Failed login with correct username and correct password</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -6770,19 +7056,19 @@
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <f>'Bug Metrics'!$A4</f>
+        <f>'Bug Metric Guide'!$A4</f>
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <f>'Bug Metrics'!$B4</f>
+        <f>'Bug Metric Guide'!$B4</f>
         <v>2</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f>'Bug Metrics'!$C4</f>
+        <f>'Bug Metric Guide'!$C4</f>
         <v>Login (User)</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>'Bug Metrics'!$D4</f>
+        <f>'Bug Metric Guide'!$D4</f>
         <v>Failed login with correct username and wrong password</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -6800,19 +7086,19 @@
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <f>'Bug Metrics'!$A5</f>
+        <f>'Bug Metric Guide'!$A5</f>
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <f>'Bug Metrics'!$B5</f>
+        <f>'Bug Metric Guide'!$B5</f>
         <v>2</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f>'Bug Metrics'!$C5</f>
+        <f>'Bug Metric Guide'!$C5</f>
         <v>Login (User)</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>'Bug Metrics'!$D5</f>
+        <f>'Bug Metric Guide'!$D5</f>
         <v>Failed login with wrong username and correct password</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -6830,19 +7116,19 @@
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <f>'Bug Metrics'!$A6</f>
+        <f>'Bug Metric Guide'!$A6</f>
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <f>'Bug Metrics'!$B6</f>
+        <f>'Bug Metric Guide'!$B6</f>
         <v>2</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>'Bug Metrics'!$C6</f>
+        <f>'Bug Metric Guide'!$C6</f>
         <v>Login (Admin)</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>'Bug Metrics'!$D6</f>
+        <f>'Bug Metric Guide'!$D6</f>
         <v>After successful login, login did not store name in session for display use at index_admin</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -6856,19 +7142,19 @@
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <f>'Bug Metrics'!$A7</f>
+        <f>'Bug Metric Guide'!$A7</f>
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <f>'Bug Metrics'!$B7</f>
+        <f>'Bug Metric Guide'!$B7</f>
         <v>2</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>'Bug Metrics'!$C7</f>
+        <f>'Bug Metric Guide'!$C7</f>
         <v>Login (User)</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>'Bug Metrics'!$D7</f>
+        <f>'Bug Metric Guide'!$D7</f>
         <v>After successful login, login did not store name in session for display use at index</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -6886,19 +7172,19 @@
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <f>'Bug Metrics'!$A8</f>
+        <f>'Bug Metric Guide'!$A8</f>
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <f>'Bug Metrics'!$B8</f>
+        <f>'Bug Metric Guide'!$B8</f>
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>'Bug Metrics'!$C8</f>
+        <f>'Bug Metric Guide'!$C8</f>
         <v>Bootstrap</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>'Bug Metrics'!$D8</f>
+        <f>'Bug Metric Guide'!$D8</f>
         <v>Crashes on upload with a "duplicate entry" database error</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -6916,19 +7202,19 @@
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <f>'Bug Metrics'!$A9</f>
+        <f>'Bug Metric Guide'!$A9</f>
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <f>'Bug Metrics'!$B9</f>
+        <f>'Bug Metric Guide'!$B9</f>
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>'Bug Metrics'!$C9</f>
+        <f>'Bug Metric Guide'!$C9</f>
         <v>Bootstrap</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>'Bug Metrics'!$D9</f>
+        <f>'Bug Metric Guide'!$D9</f>
         <v>Failed to print correct error message for invalid username</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -6946,19 +7232,19 @@
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <f>'Bug Metrics'!$A10</f>
+        <f>'Bug Metric Guide'!$A10</f>
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <f>'Bug Metrics'!$B10</f>
+        <f>'Bug Metric Guide'!$B10</f>
         <v>3</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>'Bug Metrics'!$C10</f>
+        <f>'Bug Metric Guide'!$C10</f>
         <v>Bootstrap</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>'Bug Metrics'!$D10</f>
+        <f>'Bug Metric Guide'!$D10</f>
         <v>Failed to validate the "timestamp" in location.csv</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -6985,7 +7271,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>'Bug Metrics'!$D11</f>
+        <f>'Bug Metric Guide'!$D11</f>
         <v>Printed wrong error messages</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -7003,7 +7289,7 @@
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <f>'Bug Metrics'!$A11</f>
+        <f>'Bug Metric Guide'!$A11</f>
         <v>9</v>
       </c>
       <c r="B12" s="9">
@@ -7013,7 +7299,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>'Bug Metrics'!$D12</f>
+        <f>'Bug Metric Guide'!$D12</f>
         <v>Unable to retrieve Arraylist sucessfully</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -7031,7 +7317,7 @@
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <f>'Bug Metrics'!$A12</f>
+        <f>'Bug Metric Guide'!$A12</f>
         <v>10</v>
       </c>
       <c r="B13" s="9">
@@ -7041,7 +7327,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>'Bug Metrics'!$D13</f>
+        <f>'Bug Metric Guide'!$D13</f>
         <v>Fail to load timepicker function</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -7059,7 +7345,7 @@
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <f>'Bug Metrics'!$A13</f>
+        <f>'Bug Metric Guide'!$A13</f>
         <v>11</v>
       </c>
       <c r="B14" s="9">
@@ -7069,7 +7355,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>'Bug Metrics'!$D14</f>
+        <f>'Bug Metric Guide'!$D14</f>
         <v>Cannot load date and time picker function after importing navbar.jsp</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -7087,7 +7373,7 @@
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <f>'Bug Metrics'!$A15</f>
+        <f>'Bug Metric Guide'!$A15</f>
         <v>13</v>
       </c>
       <c r="B15" s="9">
@@ -7097,7 +7383,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>'Bug Metrics'!$D15</f>
+        <f>'Bug Metric Guide'!$D15</f>
         <v>Did not retrieve the last location update</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -7115,7 +7401,7 @@
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <f>'Bug Metrics'!$A16</f>
+        <f>'Bug Metric Guide'!$A16</f>
         <v>14</v>
       </c>
       <c r="B16" s="9">
@@ -7125,7 +7411,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>'Bug Metrics'!$D16</f>
+        <f>'Bug Metric Guide'!$D16</f>
         <v>Could not print K number of places</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -7143,7 +7429,7 @@
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <f>'Bug Metrics'!$A17</f>
+        <f>'Bug Metric Guide'!$A17</f>
         <v>15</v>
       </c>
       <c r="B17" s="9">
@@ -7153,7 +7439,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f>'Bug Metrics'!$D17</f>
+        <f>'Bug Metric Guide'!$D17</f>
         <v>Null pointer exception raised when dealing with no data</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -7171,7 +7457,7 @@
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <f>'Bug Metrics'!$A18</f>
+        <f>'Bug Metric Guide'!$A18</f>
         <v>16</v>
       </c>
       <c r="B18" s="9">
@@ -7181,7 +7467,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>'Bug Metrics'!$D18</f>
+        <f>'Bug Metric Guide'!$D18</f>
         <v>Could not select "K"</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -7199,19 +7485,19 @@
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <f>'Bug Metrics'!$A19</f>
+        <f>'Bug Metric Guide'!$A19</f>
         <v>17</v>
       </c>
       <c r="B19" s="9">
-        <f>'Bug Metrics'!$B19</f>
+        <f>'Bug Metric Guide'!$B19</f>
         <v>4</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>'Bug Metrics'!$C19</f>
+        <f>'Bug Metric Guide'!$C19</f>
         <v>Bootstrap</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>'Bug Metrics'!$D19</f>
+        <f>'Bug Metric Guide'!$D19</f>
         <v>Could not delete from table when bootstrapping</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -7225,19 +7511,19 @@
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <f>'Bug Metrics'!$A20</f>
+        <f>'Bug Metric Guide'!$A20</f>
         <v>18</v>
       </c>
       <c r="B20" s="9">
-        <f>'Bug Metrics'!$B20</f>
+        <f>'Bug Metric Guide'!$B20</f>
         <v>4</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>'Bug Metrics'!$C20</f>
+        <f>'Bug Metric Guide'!$C20</f>
         <v>Breakdown of Y&amp;G</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>'Bug Metrics'!$D20</f>
+        <f>'Bug Metric Guide'!$D20</f>
         <v>Retreive output table is not aligned properly</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -7251,19 +7537,19 @@
     </row>
     <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <f>'Bug Metrics'!$A21</f>
+        <f>'Bug Metric Guide'!$A21</f>
         <v>19</v>
       </c>
       <c r="B21" s="9">
-        <f>'Bug Metrics'!$B21</f>
+        <f>'Bug Metric Guide'!$B21</f>
         <v>4</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>'Bug Metrics'!$C21</f>
+        <f>'Bug Metric Guide'!$C21</f>
         <v>Breakdown of Y&amp;G</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>'Bug Metrics'!$D21</f>
+        <f>'Bug Metric Guide'!$D21</f>
         <v>Null pointer exception raised when retreiving error message</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -7281,19 +7567,19 @@
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <f>'Bug Metrics'!$A22</f>
+        <f>'Bug Metric Guide'!$A22</f>
         <v>20</v>
       </c>
       <c r="B22" s="9">
-        <f>'Bug Metrics'!$B22</f>
+        <f>'Bug Metric Guide'!$B22</f>
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>'Bug Metrics'!$C22</f>
+        <f>'Bug Metric Guide'!$C22</f>
         <v>Breakdown of Y&amp;G</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f>'Bug Metrics'!$D22</f>
+        <f>'Bug Metric Guide'!$D22</f>
         <v>Unable to calculate percentage</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -7311,19 +7597,19 @@
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <f>'Bug Metrics'!$A23</f>
+        <f>'Bug Metric Guide'!$A23</f>
         <v>21</v>
       </c>
       <c r="B23" s="9">
-        <f>'Bug Metrics'!$B23</f>
+        <f>'Bug Metric Guide'!$B23</f>
         <v>4</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>'Bug Metrics'!$C23</f>
+        <f>'Bug Metric Guide'!$C23</f>
         <v>Breakdown of Y&amp;G</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>'Bug Metrics'!$D23</f>
+        <f>'Bug Metric Guide'!$D23</f>
         <v>Issue when retrieving total number of users, and cause null pointer exceptions</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -17114,82 +17400,82 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="12" priority="15">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="9" priority="12">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E23">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E23" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB14527-BE18-4237-8F20-0A90FC3D80AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C966E-B921-427A-A10B-32AC0F53301C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Bug Metrics" sheetId="4" r:id="rId2"/>
-    <sheet name="Bug Metric Guide" sheetId="2" r:id="rId3"/>
-    <sheet name="Bug Log Guide" sheetId="3" r:id="rId4"/>
+    <sheet name="Bug Log" sheetId="5" r:id="rId3"/>
+    <sheet name="Bug Metric Guide" sheetId="2" r:id="rId4"/>
+    <sheet name="Bug Log Guide" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="83">
   <si>
     <t>Bug Log</t>
   </si>
@@ -260,6 +261,27 @@
   <si>
     <t xml:space="preserve">Course.csv - Row 4 - Exam Date Column (Blank Exam Date) - Date with space will cause PHP error as validation is unable to compare with data course the system to generator error </t>
   </si>
+  <si>
+    <t xml:space="preserve">Course.csv - Row 5 - Exam Date Column (Date with extra numbers) - Date with extra numbers will cause PHP error as validation is unable to compare with data course the system to generator error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course.csv - Row 15 - Title Column (Delete title) - Date could pass through, when field should not allow empty variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course.csv - Row 16 - Description Column (Delete description) - deleted description will cause PHP error as validation is unable to compare with data course the system to generator error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course.csv - Row 18 - Course Column (Delete course) - Date could pass through, when field should not allow empty variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course.csv - Row 22 - School Column (Delete School) - Date could pass through, when field should not allow empty variables </t>
+  </si>
+  <si>
+    <t>Sheng Qin &amp; Vittorio</t>
+  </si>
+  <si>
+    <t>Brednon &amp; DaEun</t>
+  </si>
 </sst>
 </file>
 
@@ -411,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -501,6 +523,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,11 +545,251 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -963,7 +1228,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1AF14-9795-4A94-9B98-2B7CB2042024}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,16 +1324,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -1097,48 +1362,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="36">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="36">
         <v>1</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="34"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -1229,6 +1494,144 @@
         <v>1</v>
       </c>
       <c r="H9" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>6</v>
+      </c>
+      <c r="B10" s="33">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="33">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>7</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>8</v>
+      </c>
+      <c r="B12" s="33">
+        <v>1</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="33">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>9</v>
+      </c>
+      <c r="B13" s="33">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>10</v>
+      </c>
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>11</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1245,7 +1648,7 @@
     <mergeCell ref="A3:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1255,6 +1658,500 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA6A9A-5430-4DBB-9166-BAAA04E5944D}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="94.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f>'Bug Metric Guide'!$A3</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>'Bug Metric Guide'!$C3</f>
+        <v>Login (User)</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12">
+        <v>43738</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f>'Bug Metric Guide'!$A4</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12">
+        <v>43739</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>4</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7" s="43">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
+      <c r="B8" s="43">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>7</v>
+      </c>
+      <c r="B9" s="43">
+        <v>1</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>8</v>
+      </c>
+      <c r="B10" s="43">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>9</v>
+      </c>
+      <c r="B11" s="43">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>10</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>11</v>
+      </c>
+      <c r="B13" s="43">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12">
+        <v>43739</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="containsBlanks" dxfId="30" priority="33">
+      <formula>LEN(TRIM(E3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsBlanks" dxfId="27" priority="30">
+      <formula>LEN(TRIM(E4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsBlanks" dxfId="24" priority="27">
+      <formula>LEN(TRIM(E5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsBlanks" dxfId="21" priority="24">
+      <formula>LEN(TRIM(E6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsBlanks" dxfId="18" priority="21">
+      <formula>LEN(TRIM(E7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsBlanks" dxfId="15" priority="18">
+      <formula>LEN(TRIM(E8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsBlanks" dxfId="12" priority="15">
+      <formula>LEN(TRIM(E9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsBlanks" dxfId="9" priority="12">
+      <formula>LEN(TRIM(E10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsBlanks" dxfId="6" priority="9">
+      <formula>LEN(TRIM(E11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(E13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E13" xr:uid="{B948584E-BF58-4B44-BB28-99D97FB97827}">
+      <formula1>"Unresolved,Resolved"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1279,16 +2176,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1336,7 +2233,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="36">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -1365,7 +2262,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1388,7 +2285,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1411,7 +2308,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1434,7 +2331,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1457,7 +2354,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1480,7 +2377,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="36">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -1509,7 +2406,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1532,7 +2429,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1555,7 +2452,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1578,7 +2475,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1601,7 +2498,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="35"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1624,7 +2521,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1647,7 +2544,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="36">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -1676,7 +2573,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="35"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1699,7 +2596,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1722,7 +2619,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="35"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1745,7 +2642,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="36">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -1773,7 +2670,7 @@
       <c r="F21" s="21">
         <v>5</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1796,7 +2693,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1819,7 +2716,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -6949,7 +7846,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6962,7 +7859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6970,7 +7867,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6987,16 +7884,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -17400,77 +18297,77 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="12" priority="15">
+    <cfRule type="containsBlanks" dxfId="45" priority="15">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="9" priority="12">
+    <cfRule type="containsBlanks" dxfId="42" priority="12">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="39" priority="9">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="36" priority="6">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="33" priority="3">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C966E-B921-427A-A10B-32AC0F53301C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B0C183-DA96-4039-A5C1-E105B94E62ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
   <si>
     <t>Bug Log</t>
   </si>
@@ -241,46 +241,69 @@
     <t xml:space="preserve">Continue with current schedule development, Project Manager reschedule a session for bug fixing. </t>
   </si>
   <si>
-    <t xml:space="preserve">PHP Error, with ideal error output as login failed due to incorrect username and password. </t>
-  </si>
-  <si>
     <t>Bootstrap (Upload)</t>
   </si>
   <si>
-    <t>System output empty blank space, when uploading data.zip files with missing mandatory CSV files, when uploading data.zip files with missing mandatory CSV files</t>
-  </si>
-  <si>
     <t xml:space="preserve">Continue with current schedule development, Project Manager reschedule a session for bug fixing. Impact not deem as high due to initial phase and bootstrap validation is under implementing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course.csv - Row 2 - Exam Date Column (Blank Exam Date) - Blank data will cause PHP error as validation is unable to compare with data course the system to generator error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course.csv - Row 3 - Exam Date Column (Blank Exam Date) - Alphanumeric exam date will cause PHP error as validation is unable to compare with data course the system to generator error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course.csv - Row 4 - Exam Date Column (Blank Exam Date) - Date with space will cause PHP error as validation is unable to compare with data course the system to generator error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course.csv - Row 5 - Exam Date Column (Date with extra numbers) - Date with extra numbers will cause PHP error as validation is unable to compare with data course the system to generator error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course.csv - Row 15 - Title Column (Delete title) - Date could pass through, when field should not allow empty variables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course.csv - Row 16 - Description Column (Delete description) - deleted description will cause PHP error as validation is unable to compare with data course the system to generator error </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course.csv - Row 18 - Course Column (Delete course) - Date could pass through, when field should not allow empty variables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course.csv - Row 22 - School Column (Delete School) - Date could pass through, when field should not allow empty variables </t>
   </si>
   <si>
     <t>Sheng Qin &amp; Vittorio</t>
   </si>
   <si>
     <t>Brednon &amp; DaEun</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Screen is empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, when uploading data.zip files with missing mandatory CSV files</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop current development and resolved the bug immediately. Project manager reschedules the project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error at the following CSV file Course.csv - AT Row 3 - UNDER Exam Date Column with (Alphanumeric exam date) - Alphanumeric exam date will cause PHP error. </t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 4 - UNDER Exam Date Column with (Exam Date space) - Date with space will cause PHP error.</t>
+  </si>
+  <si>
+    <t>PHP Error accompanied with error prompt, which is design to inform the user about the error.</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 5 - UNDER Exam Date Column with (Date with extra numbers) - Date with extra numbers will cause PHP error</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file: Course.csv - AT Row 2 - UNDER Exam Date Column with (empty Exam Date) which a cause PHP error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error at the following CSV file Course.csv - AT Row 15 - UNDER Title Column with (empty title) - data could pass through, when field should not allow empty variables </t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 16 - UNDER Description Column with (Empty description) - deleted description will cause PHP error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error at the following CSV file Course.csv - AT Row 18 - UNDER Course Column with (Empty course) - Data could pass through, when field should not allow empty variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error at the following CSV file Course.csv - AT Row 22 - UNDER School Column with (Empty School) - Date could pass through, when field should not allow empty variables </t>
   </si>
 </sst>
 </file>
@@ -290,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -373,6 +396,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -433,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -526,6 +557,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,15 +588,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,6 +611,100 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -808,100 +936,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1304,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1AF14-9795-4A94-9B98-2B7CB2042024}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,16 +1358,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -1362,48 +1396,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="40">
         <v>1</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="35"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -1413,19 +1447,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F6" s="28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1436,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>31</v>
@@ -1448,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1459,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>31</v>
@@ -1471,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1482,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>31</v>
@@ -1494,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1505,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>31</v>
@@ -1517,21 +1551,21 @@
         <v>1</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="34">
         <v>7</v>
       </c>
       <c r="B11" s="33">
         <v>1</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>31</v>
@@ -1540,21 +1574,21 @@
         <v>1</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="34">
         <v>8</v>
       </c>
       <c r="B12" s="33">
         <v>1</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>31</v>
@@ -1563,21 +1597,21 @@
         <v>1</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="34">
         <v>9</v>
       </c>
       <c r="B13" s="33">
         <v>1</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>31</v>
@@ -1586,21 +1620,21 @@
         <v>1</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="34">
         <v>10</v>
       </c>
       <c r="B14" s="33">
         <v>1</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>31</v>
@@ -1609,30 +1643,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
-        <v>11</v>
-      </c>
-      <c r="B15" s="33">
-        <v>1</v>
-      </c>
-      <c r="C15" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="33">
-        <v>1</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1659,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA6A9A-5430-4DBB-9166-BAAA04E5944D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1678,16 +1689,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1727,10 +1738,10 @@
         <f>'Bug Metric Guide'!$C3</f>
         <v>Login (User)</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="12">
@@ -1738,7 +1749,7 @@
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,12 +1761,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="12">
@@ -1763,214 +1774,191 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="12">
         <v>43739</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="37">
         <v>1</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="12">
         <v>43739</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="37">
         <v>1</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="12">
         <v>43739</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="37">
         <v>6</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="37">
         <v>1</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="12">
         <v>43739</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>7</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="37">
         <v>1</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="12">
         <v>43739</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>8</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="37">
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="12">
         <v>43739</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>9</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="37">
         <v>1</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="12">
         <v>43739</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>10</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="37">
         <v>1</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="12">
         <v>43739</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
-        <v>11</v>
-      </c>
-      <c r="B13" s="43">
-        <v>1</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="12">
-        <v>43739</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1978,172 +1966,157 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsBlanks" dxfId="30" priority="33">
+    <cfRule type="containsBlanks" dxfId="46" priority="33">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsBlanks" dxfId="27" priority="30">
+    <cfRule type="containsBlanks" dxfId="43" priority="30">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsBlanks" dxfId="24" priority="27">
+    <cfRule type="containsBlanks" dxfId="40" priority="27">
       <formula>LEN(TRIM(E5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="21" priority="24">
+    <cfRule type="containsBlanks" dxfId="37" priority="24">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="18" priority="21">
+    <cfRule type="containsBlanks" dxfId="34" priority="21">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="15" priority="18">
+    <cfRule type="containsBlanks" dxfId="31" priority="18">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="12" priority="15">
+    <cfRule type="containsBlanks" dxfId="25" priority="12">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="9" priority="12">
+    <cfRule type="containsBlanks" dxfId="22" priority="9">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="19" priority="6">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="16" priority="3">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E13))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E13" xr:uid="{B948584E-BF58-4B44-BB28-99D97FB97827}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E12" xr:uid="{B948584E-BF58-4B44-BB28-99D97FB97827}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2159,7 +2132,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2176,16 +2149,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -2233,7 +2206,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="40">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -2262,7 +2235,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2285,7 +2258,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2308,7 +2281,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2331,7 +2304,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -2354,7 +2327,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -2377,7 +2350,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="40">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -2406,7 +2379,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2429,7 +2402,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2452,7 +2425,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2475,7 +2448,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2498,7 +2471,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2521,7 +2494,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -2544,7 +2517,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="40">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -2573,7 +2546,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2596,7 +2569,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2619,7 +2592,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -2642,7 +2615,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="40">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -2670,7 +2643,7 @@
       <c r="F21" s="21">
         <v>5</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2693,7 +2666,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2716,7 +2689,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -7846,7 +7819,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7884,16 +7857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -18297,77 +18270,77 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="45" priority="15">
+    <cfRule type="containsBlanks" dxfId="12" priority="15">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="42" priority="12">
+    <cfRule type="containsBlanks" dxfId="9" priority="12">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="39" priority="9">
+    <cfRule type="containsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="36" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="33" priority="3">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F62CADE-CED0-4BE0-985C-69EB5A997529}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F884056F-5ACF-44EB-B9C4-CCE13C37C19E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>Bug Log</t>
   </si>
@@ -122,30 +122,31 @@
     <t>Mitgation</t>
   </si>
   <si>
-    <t xml:space="preserve">Continue with current schedule development, Project Manager reschedule a session for bug fixing. </t>
-  </si>
-  <si>
     <t>Bootstrap (Upload)</t>
   </si>
   <si>
-    <t xml:space="preserve">Continue with current schedule development, Project Manager reschedule a session for bug fixing. Impact not deem as high due to initial phase and bootstrap validation is under implementing </t>
-  </si>
-  <si>
     <t>Sheng Qin &amp; Vittorio</t>
   </si>
   <si>
     <t>Brednon &amp; DaEun</t>
   </si>
   <si>
+    <t>Error at the following CSV file Course.csv - AT Row 4 - UNDER Exam Date Column with (Exam Date space) - Date with space will cause PHP error.</t>
+  </si>
+  <si>
+    <t>PHP Error accompanied with error prompt, which is design to inform the user about the error.</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 5 - UNDER Exam Date Column with (Date with extra numbers) - Date with extra numbers will cause PHP error</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file: Course.csv - AT Row 2 - UNDER Exam Date Column with (empty Exam Date) which a cause PHP error.</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 16 - UNDER Description Column with (Empty description) - deleted description will cause PHP error</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Screen is empty</t>
     </r>
     <r>
@@ -154,40 +155,45 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>, when uploading data.zip files with missing mandatory CSV files</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Stop current development and resolved the bug immediately. Project manager reschedules the project. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error at the following CSV file Course.csv - AT Row 3 - UNDER Exam Date Column with (Alphanumeric exam date) - Alphanumeric exam date will cause PHP error. </t>
-  </si>
-  <si>
-    <t>Error at the following CSV file Course.csv - AT Row 4 - UNDER Exam Date Column with (Exam Date space) - Date with space will cause PHP error.</t>
-  </si>
-  <si>
-    <t>PHP Error accompanied with error prompt, which is design to inform the user about the error.</t>
-  </si>
-  <si>
-    <t>Error at the following CSV file Course.csv - AT Row 5 - UNDER Exam Date Column with (Date with extra numbers) - Date with extra numbers will cause PHP error</t>
-  </si>
-  <si>
-    <t>Error at the following CSV file: Course.csv - AT Row 2 - UNDER Exam Date Column with (empty Exam Date) which a cause PHP error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error at the following CSV file Course.csv - AT Row 15 - UNDER Title Column with (empty title) - data could pass through, when field should not allow empty variables </t>
-  </si>
-  <si>
-    <t>Error at the following CSV file Course.csv - AT Row 16 - UNDER Description Column with (Empty description) - deleted description will cause PHP error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error at the following CSV file Course.csv - AT Row 18 - UNDER Course Column with (Empty course) - Data could pass through, when field should not allow empty variables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error at the following CSV file Course.csv - AT Row 22 - UNDER School Column with (Empty School) - Date could pass through, when field should not allow empty variables </t>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 3 - UNDER Exam Date Column with (Alphanumeric exam date) - Alphanumeric exam date will cause PHP error.</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 15 - UNDER Title Column with (empty title) - data could pass through, when field should not allow empty variables</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 18 - UNDER Course Column with (Empty course) - Data could pass through, when field should not allow empty variables</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 22 - UNDER School Column with (Empty School) - Date could pass through, when field should not allow empty variables</t>
+  </si>
+  <si>
+    <t>This page isn’t working. 18.216.225.229 is currently unable to handle this request. A row with duplicate course AND section in section.csv will result in this error.</t>
+  </si>
+  <si>
+    <t>Sheng Qin &amp; DaEun</t>
+  </si>
+  <si>
+    <t>When course.csv has all empty fields for all columns in a row, it only shows "blank course" . The line number does not increase, causing subsequent errors to have a wrong line number (smaller by 1)</t>
+  </si>
+  <si>
+    <t>Continue with current schedule development, Project Manager reschedule a session for bug fixing.</t>
+  </si>
+  <si>
+    <t>Stop current development and resolved the bug immediately. Project manager reschedules the project.</t>
+  </si>
+  <si>
+    <t>Continue with current schedule development, Project Manager reschedule a session for bug fixing. Impact not deem as high due to initial phase and bootstrap validation is under implementing</t>
+  </si>
+  <si>
+    <t>Error at the following CSV file Course.csv - AT Row 23 - UNDER Exam Date Column with (Alphanumeric)-Alphanumeric exam date will give a PHP error</t>
   </si>
 </sst>
 </file>
@@ -252,11 +258,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -275,10 +276,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,8 +315,20 @@
         <bgColor rgb="FFCCECFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -333,11 +351,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -358,71 +428,83 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,64 +1119,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1AF14-9795-4A94-9B98-2B7CB2042024}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="84.21875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="13" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.21875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10" style="11" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -1104,8 +1186,8 @@
       <c r="C3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>39</v>
+      <c r="D3" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>24</v>
@@ -1113,237 +1195,364 @@
       <c r="F3" s="26">
         <v>1</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="25" t="s">
-        <v>30</v>
+      <c r="G3" s="32"/>
+      <c r="H3" s="29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="E10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
         <v>10</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
-        <v>3</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25">
+        <v>11</v>
+      </c>
+      <c r="B15" s="25">
+        <v>2</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>5</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23">
+        <v>12</v>
+      </c>
+      <c r="B16" s="23">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>7</v>
-      </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
-        <v>9</v>
-      </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
-        <v>10</v>
-      </c>
-      <c r="B14" s="19">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>32</v>
-      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1369,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA6A9A-5430-4DBB-9166-BAAA04E5944D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1388,18 +1597,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1421,404 +1630,318 @@
       <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="22" t="s">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="18">
+        <v>43738</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F5" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G5" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G6" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G8" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G9" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G10" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G11" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9">
-        <v>43738</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="F12" s="18">
+        <v>43739</v>
+      </c>
+      <c r="G12" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="18">
+        <v>43754</v>
+      </c>
+      <c r="G13" s="18">
+        <v>43754</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9">
-        <v>43739</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>5</v>
-      </c>
-      <c r="B7" s="23">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>8</v>
-      </c>
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>9</v>
-      </c>
-      <c r="B11" s="23">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>10</v>
-      </c>
-      <c r="B12" s="23">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="9">
-        <v>43739</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="F14" s="18">
+        <v>43754</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="containsBlanks" dxfId="27" priority="33">
-      <formula>LEN(TRIM(E3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsBlanks" dxfId="24" priority="30">
-      <formula>LEN(TRIM(E4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsBlanks" dxfId="21" priority="27">
-      <formula>LEN(TRIM(E5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="18" priority="24">
-      <formula>LEN(TRIM(E6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="15" priority="21">
-      <formula>LEN(TRIM(E7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="12" priority="18">
-      <formula>LEN(TRIM(E8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="9" priority="12">
-      <formula>LEN(TRIM(E9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
-      <formula>LEN(TRIM(E10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E12" xr:uid="{B948584E-BF58-4B44-BB28-99D97FB97827}">
-      <formula1>"Unresolved,Resolved"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D611D-54B4-4EAF-8D56-10C753DCF7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-6465" yWindow="3000" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,11 @@
     <sheet name="Bug Log" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
   <si>
     <t>Bug Log</t>
   </si>
@@ -218,11 +211,20 @@
   <si>
     <t xml:space="preserve">Add bids instead of update bids when userid and current course exists, causing a exam timetable clash. Should be bid update instead. </t>
   </si>
+  <si>
+    <t>Window Closing</t>
+  </si>
+  <si>
+    <t>When window 2 is closed, there is no prompt to show the current status of the page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When window 2 is closed, there is no prompt to show the current status of the page. This problem is only found in the AWS deployment </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -427,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -491,6 +493,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,23 +545,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,20 +872,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -888,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -896,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -904,7 +909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -912,11 +917,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -924,7 +929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -932,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -946,39 +951,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.21875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1004,51 +1009,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="27">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1072,7 +1077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1120,7 +1125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1144,7 +1149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>11</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>12</v>
       </c>
@@ -1312,17 +1317,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1332,7 +1332,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1342,7 +1342,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1352,7 +1352,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1362,7 +1362,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1372,7 +1372,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1405,38 +1405,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="94.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -1766,154 +1766,195 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="24">
         <v>3</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="26">
         <v>43769</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="24">
         <v>3</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="26">
         <v>43769</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="26">
         <v>43771</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="24">
         <v>3</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="26">
         <v>43769</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="26">
         <v>43771</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="24">
         <v>3</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="26">
         <v>43769</v>
       </c>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>17</v>
+      </c>
+      <c r="B19" s="41">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="26">
+        <v>43769</v>
+      </c>
+      <c r="G19" s="26">
+        <v>43771</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="26">
+        <v>43769</v>
+      </c>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
   <si>
     <t>Bug Log</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t xml:space="preserve">Add bids instead of update bids when userid and current course exists, causing a exam timetable clash. Should be bid update instead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON - Bootstrap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error field message not sorted </t>
   </si>
 </sst>
 </file>
@@ -491,6 +497,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,24 +549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -967,16 +973,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1005,48 +1011,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="27">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="25"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
@@ -1408,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1425,16 +1431,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1767,153 +1773,175 @@
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="24">
         <v>3</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="26">
         <v>43769</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="24">
         <v>3</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="26">
         <v>43769</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="26">
         <v>43771</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="24">
         <v>3</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="26">
         <v>43769</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="26">
         <v>43771</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="28" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="24">
         <v>3</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="26">
+        <v>43769</v>
+      </c>
+      <c r="G18" s="26">
+        <v>43771</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="24">
+        <v>3</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F19" s="26">
         <v>43769</v>
       </c>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0D7D50-37F3-4937-BA05-4CD3B856FC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-1950" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,11 @@
     <sheet name="Bug Log" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
   <si>
     <t>Bug Log</t>
   </si>
@@ -224,11 +217,23 @@
   <si>
     <t xml:space="preserve">Error field message not sorted </t>
   </si>
+  <si>
+    <t xml:space="preserve">Add bid </t>
+  </si>
+  <si>
+    <t>There is an error caused by non-standardized variable names</t>
+  </si>
+  <si>
+    <t>Vacancy does not change if a bid is dropped</t>
+  </si>
+  <si>
+    <t>No validation if the vacancy is already at 0 - bid goes through even though there is no vacancy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -873,20 +878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -894,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -902,7 +907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -910,7 +915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -918,11 +923,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -930,7 +935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -938,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -952,27 +957,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.21875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -984,7 +989,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -1044,7 +1049,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -1054,7 +1059,7 @@
       <c r="G5" s="38"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1078,7 +1083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1126,7 +1131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1198,7 +1203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>11</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>12</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1328,7 +1333,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1338,7 +1343,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1348,7 +1353,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1358,7 +1363,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1368,7 +1373,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1378,7 +1383,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1411,26 +1416,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="94.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1447,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1468,7 +1473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1568,7 +1573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1646,7 +1651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -1772,7 +1777,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -1818,7 +1823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -1844,7 +1849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -1870,7 +1875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -1891,55 +1896,121 @@
       </c>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24">
+        <v>3</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="26">
+        <v>43776</v>
+      </c>
+      <c r="G20" s="26">
+        <v>43776</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24">
+        <v>3</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="26">
+        <v>43776</v>
+      </c>
+      <c r="G21" s="26">
+        <v>43776</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="24">
+        <v>3</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="26">
+        <v>43776</v>
+      </c>
+      <c r="G22" s="26">
+        <v>43776</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0D7D50-37F3-4937-BA05-4CD3B856FC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACD1D60-3612-4DC3-9DDD-1A1613F8EC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1950" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
   <si>
     <t>Bug Log</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>No validation if the vacancy is already at 0 - bid goes through even though there is no vacancy</t>
+  </si>
+  <si>
+    <t>No validation if you bid for two sections of the same course at the same time</t>
+  </si>
+  <si>
+    <t>No validation if you bid for two sections of the same course in separate bids</t>
   </si>
 </sst>
 </file>
@@ -1419,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1974,13 +1980,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="27"/>
+    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24">
+        <v>3</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="26">
+        <v>43778</v>
+      </c>
+      <c r="G23" s="26">
+        <v>43778</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="26">
+        <v>43778</v>
+      </c>
       <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F25" s="27"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACD1D60-3612-4DC3-9DDD-1A1613F8EC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
   <si>
     <t>Bug Log</t>
   </si>
@@ -218,9 +217,6 @@
     <t xml:space="preserve">Error field message not sorted </t>
   </si>
   <si>
-    <t xml:space="preserve">Add bid </t>
-  </si>
-  <si>
     <t>There is an error caused by non-standardized variable names</t>
   </si>
   <si>
@@ -234,12 +230,15 @@
   </si>
   <si>
     <t>No validation if you bid for two sections of the same course in separate bids</t>
+  </si>
+  <si>
+    <t>Should be able to bid even when vacancy is temporarily 0 during round 2. Shouldn't allow bids if round 1 ends, and vacancy is 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -884,20 +883,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -905,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -913,7 +912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -921,7 +920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -929,11 +928,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -941,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -949,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -963,27 +962,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="11"/>
+    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -995,7 +994,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -1055,7 +1054,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -1065,7 +1064,7 @@
       <c r="G5" s="38"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>11</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>12</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1339,7 +1338,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1349,7 +1348,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1359,7 +1358,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1369,7 +1368,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1379,7 +1378,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1389,7 +1388,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1422,26 +1421,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="94.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="94.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1452,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -1783,7 +1782,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -1902,7 +1901,7 @@
       </c>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -1910,10 +1909,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>38</v>
@@ -1928,7 +1927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -1936,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>38</v>
@@ -1954,7 +1953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -1962,10 +1961,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>38</v>
@@ -1980,7 +1979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -1988,10 +1987,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>38</v>
@@ -2006,12 +2005,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>22</v>
+      </c>
+      <c r="B24" s="24">
+        <v>3</v>
+      </c>
       <c r="C24" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>25</v>
@@ -2022,35 +2027,57 @@
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24">
+        <v>3</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="26">
+        <v>43778</v>
+      </c>
+      <c r="G25" s="26">
+        <v>43778</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C97B1-B2DD-416B-BDC4-A4B872D159BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
   <si>
     <t>Bug Log</t>
   </si>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -883,20 +884,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -904,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -912,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -920,7 +921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -928,11 +929,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -940,7 +941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -948,7 +949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -962,27 +963,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
@@ -994,7 +995,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -1054,7 +1055,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -1064,7 +1065,7 @@
       <c r="G5" s="38"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>11</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>12</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1338,7 +1339,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1348,7 +1349,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1358,7 +1359,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1368,7 +1369,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1378,7 +1379,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1388,7 +1389,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1421,26 +1422,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="94.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1453,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -1782,7 +1783,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>17</v>
       </c>
@@ -1901,7 +1902,7 @@
       </c>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>19</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>20</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>21</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>22</v>
       </c>
@@ -2018,16 +2019,20 @@
       <c r="D24" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>25</v>
+      <c r="E24" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F24" s="26">
         <v>43778</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="26">
+        <v>43780</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>23</v>
       </c>
@@ -2053,31 +2058,31 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C97B1-B2DD-416B-BDC4-A4B872D159BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B66082-E8FB-4640-B1C1-71F7029254D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1425,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B66082-E8FB-4640-B1C1-71F7029254D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D53BA99-F435-416F-A84A-DA7644BCDE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t>Bug Log</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Should be able to bid even when vacancy is temporarily 0 during round 2. Shouldn't allow bids if round 1 ends, and vacancy is 0</t>
+  </si>
+  <si>
+    <t>Drop Bid</t>
+  </si>
+  <si>
+    <t>You can drop a bid once the window is closed. You should only be able to drop bids during active rounds</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2058,9 +2064,31 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24">
+        <v>3</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="26">
+        <v>43780</v>
+      </c>
+      <c r="G26" s="26">
+        <v>43780</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F27" s="27"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D53BA99-F435-416F-A84A-DA7644BCDE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C361B60-A08A-48C8-AB3F-CF92AD504631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
   <si>
     <t>Bug Log</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>You can drop a bid once the window is closed. You should only be able to drop bids during active rounds</t>
+  </si>
+  <si>
+    <t>Drop Section</t>
+  </si>
+  <si>
+    <t>You can drop a section once the window is closed. You should only be able to drop sections during active rounds</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2090,9 +2096,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>25</v>
+      </c>
+      <c r="B27" s="24">
+        <v>3</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="26">
+        <v>43780</v>
+      </c>
+      <c r="G27" s="26">
+        <v>43780</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F28" s="27"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C361B60-A08A-48C8-AB3F-CF92AD504631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF0CFA-686C-44D3-9CDB-C42E2D5CC966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="75">
   <si>
     <t>Bug Log</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>You can drop a section once the window is closed. You should only be able to drop sections during active rounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boostrap </t>
+  </si>
+  <si>
+    <t>Does not show success message or how many lines have been processed</t>
+  </si>
+  <si>
+    <t>14/11/2019</t>
+  </si>
+  <si>
+    <t>Matthew &amp; DaEun</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1450,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2122,9 +2134,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>26</v>
+      </c>
+      <c r="B28" s="24">
+        <v>3</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F29" s="27"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF0CFA-686C-44D3-9CDB-C42E2D5CC966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5A52F4-FFBE-45D1-B767-10F592534334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15405" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
   <si>
     <t>Bug Log</t>
   </si>
@@ -248,9 +248,6 @@
     <t>You can drop a section once the window is closed. You should only be able to drop sections during active rounds</t>
   </si>
   <si>
-    <t xml:space="preserve">Boostrap </t>
-  </si>
-  <si>
     <t>Does not show success message or how many lines have been processed</t>
   </si>
   <si>
@@ -258,6 +255,12 @@
   </si>
   <si>
     <t>Matthew &amp; DaEun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-consistent bid amounts when clicking on landing page and add bid page </t>
   </si>
 </sst>
 </file>
@@ -1449,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2142,27 +2145,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="26" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>27</v>
+      </c>
+      <c r="B29" s="27">
+        <v>3</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F30" s="27"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5A52F4-FFBE-45D1-B767-10F592534334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D102D5-D591-4475-8152-405D51FCF81E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15405" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
   <si>
     <t>Bug Log</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Unresolved</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Fixed by (PP Team)</t>
   </si>
   <si>
@@ -135,20 +132,6 @@
     <t>Error at the following CSV file Course.csv - AT Row 16 - UNDER Description Column with (Empty description) - deleted description will cause PHP error</t>
   </si>
   <si>
-    <r>
-      <t>Screen is empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, when uploading data.zip files with missing mandatory CSV files</t>
-    </r>
-  </si>
-  <si>
     <t>Resolved</t>
   </si>
   <si>
@@ -176,9 +159,6 @@
     <t>Continue with current schedule development, Project Manager reschedule a session for bug fixing.</t>
   </si>
   <si>
-    <t>Stop current development and resolved the bug immediately. Project manager reschedules the project.</t>
-  </si>
-  <si>
     <t>Continue with current schedule development, Project Manager reschedule a session for bug fixing. Impact not deem as high due to initial phase and bootstrap validation is under implementing</t>
   </si>
   <si>
@@ -261,13 +241,16 @@
   </si>
   <si>
     <t xml:space="preserve">Non-consistent bid amounts when clicking on landing page and add bid page </t>
+  </si>
+  <si>
+    <t>Sheng Qin &amp; Brendon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -333,13 +316,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -471,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -517,16 +493,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -574,13 +547,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -918,13 +891,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -932,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -940,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -948,7 +921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -956,11 +929,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -968,7 +941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -976,7 +949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -991,38 +964,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="11"/>
+    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1042,57 +1015,57 @@
         <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1100,23 +1073,23 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="12">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1124,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>24</v>
@@ -1135,12 +1108,12 @@
       <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="18"/>
+      <c r="H7" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1148,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>24</v>
@@ -1159,12 +1132,12 @@
       <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="18"/>
+      <c r="H8" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1172,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>24</v>
@@ -1183,12 +1156,12 @@
       <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="18"/>
+      <c r="H9" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1196,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>24</v>
@@ -1207,12 +1180,12 @@
       <c r="F10" s="12">
         <v>1</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="18"/>
+      <c r="H10" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1220,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>24</v>
@@ -1231,12 +1204,12 @@
       <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="18"/>
+      <c r="H11" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1244,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>24</v>
@@ -1255,12 +1228,12 @@
       <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="18"/>
+      <c r="H12" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1268,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>24</v>
@@ -1279,23 +1252,23 @@
       <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="G13" s="18"/>
+      <c r="H13" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
         <v>10</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>30</v>
+      <c r="B14" s="21">
+        <v>2</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>24</v>
@@ -1303,128 +1276,104 @@
       <c r="F14" s="12">
         <v>1</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="G14" s="18"/>
+      <c r="H14" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19">
         <v>11</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>2</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>30</v>
+      <c r="C15" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="12">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
-        <v>12</v>
-      </c>
-      <c r="B16" s="20">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="20">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1450,37 +1399,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="94.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="94.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1503,10 +1452,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1517,58 +1466,62 @@
         <v>17</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F3" s="15">
         <v>43738</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="15">
+        <v>43739</v>
+      </c>
       <c r="H3" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F4" s="15">
         <v>43739</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="15">
+        <v>43754</v>
+      </c>
       <c r="H4" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="15">
         <v>43739</v>
@@ -1577,10 +1530,10 @@
         <v>43754</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1588,13 +1541,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F6" s="15">
         <v>43739</v>
@@ -1603,24 +1556,24 @@
         <v>43754</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="16">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F7" s="15">
         <v>43739</v>
@@ -1629,10 +1582,10 @@
         <v>43754</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1640,13 +1593,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="18" t="s">
         <v>38</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="15">
         <v>43739</v>
@@ -1655,10 +1608,10 @@
         <v>43754</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1666,13 +1619,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="15">
         <v>43739</v>
@@ -1681,24 +1634,24 @@
         <v>43754</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="B10" s="16">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="15">
         <v>43739</v>
@@ -1707,10 +1660,10 @@
         <v>43754</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1718,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F11" s="15">
         <v>43739</v>
@@ -1733,473 +1686,457 @@
         <v>43754</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="15">
-        <v>43739</v>
+        <v>43754</v>
       </c>
       <c r="G12" s="15">
         <v>43754</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="19">
         <v>2</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
+      <c r="C13" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>38</v>
+      <c r="E13" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="15">
         <v>43754</v>
       </c>
       <c r="G13" s="15">
-        <v>43754</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+        <v>43758</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="20">
-        <v>2</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="B14" s="23">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="25">
+        <v>43769</v>
+      </c>
+      <c r="G14" s="25">
+        <v>43771</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23">
+        <v>3</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="25">
+        <v>43769</v>
+      </c>
+      <c r="G15" s="25">
+        <v>43771</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="25">
+        <v>43769</v>
+      </c>
+      <c r="G16" s="25">
+        <v>43771</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="25">
+        <v>43769</v>
+      </c>
+      <c r="G17" s="25">
+        <v>43771</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23">
+        <v>3</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="15">
-        <v>43754</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>13</v>
-      </c>
-      <c r="B15" s="24">
+      <c r="F18" s="25">
+        <v>43769</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23">
         <v>3</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="25">
+        <v>43776</v>
+      </c>
+      <c r="G19" s="25">
+        <v>43776</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23">
+        <v>3</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="25">
+        <v>43776</v>
+      </c>
+      <c r="G20" s="25">
+        <v>43776</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23">
+        <v>3</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="25">
+        <v>43776</v>
+      </c>
+      <c r="G21" s="25">
+        <v>43776</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23">
+        <v>3</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="25">
+        <v>43778</v>
+      </c>
+      <c r="G22" s="25">
+        <v>43778</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="25">
+        <v>43778</v>
+      </c>
+      <c r="G23" s="25">
+        <v>43780</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23">
+        <v>3</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="25">
+        <v>43778</v>
+      </c>
+      <c r="G24" s="25">
+        <v>43778</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="23">
+        <v>3</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="25">
+        <v>43780</v>
+      </c>
+      <c r="G25" s="25">
+        <v>43780</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
+      <c r="B26" s="23">
+        <v>3</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="25">
+        <v>43780</v>
+      </c>
+      <c r="G26" s="25">
+        <v>43780</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="F15" s="26">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>14</v>
-      </c>
-      <c r="B16" s="24">
+      <c r="B27" s="23">
         <v>3</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="26">
-        <v>43769</v>
-      </c>
-      <c r="G16" s="26">
-        <v>43771</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24">
+      <c r="C27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="26">
         <v>3</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="26">
-        <v>43769</v>
-      </c>
-      <c r="G17" s="26">
-        <v>43771</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>16</v>
-      </c>
-      <c r="B18" s="24">
-        <v>3</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="26">
-        <v>43769</v>
-      </c>
-      <c r="G18" s="26">
-        <v>43771</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>17</v>
-      </c>
-      <c r="B19" s="24">
-        <v>3</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="26">
-        <v>43769</v>
-      </c>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>18</v>
-      </c>
-      <c r="B20" s="24">
-        <v>3</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="26">
-        <v>43776</v>
-      </c>
-      <c r="G20" s="26">
-        <v>43776</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>19</v>
-      </c>
-      <c r="B21" s="24">
-        <v>3</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="26">
-        <v>43776</v>
-      </c>
-      <c r="G21" s="26">
-        <v>43776</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24">
-        <v>3</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="26">
-        <v>43776</v>
-      </c>
-      <c r="G22" s="26">
-        <v>43776</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="24">
-        <v>3</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="26">
-        <v>43778</v>
-      </c>
-      <c r="G23" s="26">
-        <v>43778</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>22</v>
-      </c>
-      <c r="B24" s="24">
-        <v>3</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="26">
-        <v>43778</v>
-      </c>
-      <c r="G24" s="26">
-        <v>43780</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>23</v>
-      </c>
-      <c r="B25" s="24">
-        <v>3</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="26">
-        <v>43778</v>
-      </c>
-      <c r="G25" s="26">
-        <v>43778</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>24</v>
-      </c>
-      <c r="B26" s="24">
-        <v>3</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="26">
-        <v>43780</v>
-      </c>
-      <c r="G26" s="26">
-        <v>43780</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>25</v>
-      </c>
-      <c r="B27" s="24">
-        <v>3</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="C28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="G28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="26">
-        <v>43780</v>
-      </c>
-      <c r="G27" s="26">
-        <v>43780</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
-        <v>26</v>
-      </c>
-      <c r="B28" s="24">
-        <v>3</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
-        <v>27</v>
-      </c>
-      <c r="B29" s="27">
-        <v>3</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D102D5-D591-4475-8152-405D51FCF81E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF9561A-754C-4188-980D-9C8697C78B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
   <si>
     <t>Bug Log</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Sheng Qin &amp; Brendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landing page </t>
+  </si>
+  <si>
+    <t>Not being able to show status result of bids after round 1</t>
   </si>
 </sst>
 </file>
@@ -891,13 +897,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -905,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -913,7 +919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -921,7 +927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -929,11 +935,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -941,7 +947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -949,7 +955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -970,20 +976,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -995,7 +1001,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -1055,7 +1061,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -1065,7 +1071,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>10</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -1305,7 +1311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1315,7 +1321,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1325,7 +1331,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1335,7 +1341,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1345,7 +1351,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1355,7 +1361,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1365,7 +1371,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1401,23 +1407,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="94.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1435,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1866,7 +1872,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -2074,12 +2080,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>71</v>
@@ -2100,12 +2106,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>26</v>
       </c>
       <c r="B28" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>71</v>
@@ -2126,15 +2132,37 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>27</v>
+      </c>
+      <c r="B29" s="23">
+        <v>4</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
     </row>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF9561A-754C-4188-980D-9C8697C78B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB1C4EC-18A0-4B6E-ACAE-FA87699C52E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
   <si>
     <t>Bug Log</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Not being able to show status result of bids after round 1</t>
+  </si>
+  <si>
+    <t>Money should be refunded when a section is dropped</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1411,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2158,9 +2161,31 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>28</v>
+      </c>
+      <c r="B30" s="23">
+        <v>4</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F31" s="26"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB1C4EC-18A0-4B6E-ACAE-FA87699C52E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C334C-6942-4397-93DE-6DF44EFD5ADB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
   <si>
     <t>Bug Log</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Money should be refunded when a section is dropped</t>
+  </si>
+  <si>
+    <t>Drop Bid round 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When vacancy reaches max limit, those that were out-bid would causes all other bids status to fail. </t>
   </si>
 </sst>
 </file>
@@ -900,13 +906,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -914,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -922,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -930,7 +936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -938,11 +944,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -950,7 +956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -958,7 +964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -979,20 +985,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="11"/>
+    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1010,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -1064,7 +1070,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -1074,7 +1080,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>10</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1324,7 +1330,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1334,7 +1340,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1344,7 +1350,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1354,7 +1360,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1364,7 +1370,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1374,7 +1380,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1410,23 +1416,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="94.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="94.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1444,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1875,7 +1881,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>28</v>
       </c>
@@ -2187,8 +2193,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F31" s="26"/>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>29</v>
+      </c>
+      <c r="B31" s="23">
+        <v>4</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="G31" s="26"/>
     </row>
   </sheetData>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C334C-6942-4397-93DE-6DF44EFD5ADB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CDEC9D-608B-493F-85E6-D59DF7A20E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
   <si>
     <t>Bug Log</t>
   </si>
@@ -259,6 +259,21 @@
   </si>
   <si>
     <t xml:space="preserve">When vacancy reaches max limit, those that were out-bid would causes all other bids status to fail. </t>
+  </si>
+  <si>
+    <t>Admin Page</t>
+  </si>
+  <si>
+    <t>Exclamation mark appears if no file is imported on the admin page</t>
+  </si>
+  <si>
+    <t>Brendon &amp; Vittorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error if no file is imported on the bootstrap </t>
+  </si>
+  <si>
+    <t>16/11/2019</t>
   </si>
 </sst>
 </file>
@@ -462,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,6 +590,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,13 +924,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -920,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -928,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -936,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -944,11 +962,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -956,7 +974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -964,7 +982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -985,20 +1003,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1028,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -1060,7 +1078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -1070,7 +1088,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -1080,7 +1098,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1104,7 +1122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1128,7 +1146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1152,7 +1170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1176,7 +1194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1200,7 +1218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1248,7 +1266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>10</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -1320,7 +1338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1330,7 +1348,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1340,7 +1358,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1350,7 +1368,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1360,7 +1378,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1370,7 +1388,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1380,7 +1398,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1414,25 +1432,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="94.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1462,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1470,7 +1488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1548,7 +1566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1574,7 +1592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1600,7 +1618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1626,7 +1644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1652,7 +1670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1678,7 +1696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1704,7 +1722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1756,7 +1774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1782,7 +1800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1834,7 +1852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -1860,7 +1878,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1881,7 +1899,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -1907,7 +1925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1933,7 +1951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -1959,7 +1977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -2011,7 +2029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -2037,7 +2055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -2063,7 +2081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -2141,7 +2159,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>28</v>
       </c>
@@ -2193,7 +2211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -2206,13 +2224,58 @@
       <c r="D31" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>25</v>
+      <c r="E31" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>30</v>
+      </c>
+      <c r="B32" s="23">
+        <v>4</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>31</v>
+      </c>
+      <c r="B33" s="23">
+        <v>4</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CDEC9D-608B-493F-85E6-D59DF7A20E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A7656-CF7A-4A1D-A8F2-D71A462FD806}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
   <si>
     <t>Bug Log</t>
   </si>
@@ -274,13 +274,19 @@
   </si>
   <si>
     <t>16/11/2019</t>
+  </si>
+  <si>
+    <t>Add Bid page</t>
+  </si>
+  <si>
+    <t>Bid amount can exceed amount in wallet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -353,8 +359,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,8 +409,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -473,11 +491,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -556,6 +583,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,8 +620,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,13 +954,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -938,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -946,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -954,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -962,11 +992,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -974,7 +1004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1003,32 +1033,32 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="10" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="66.140625" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="11"/>
+    <col min="7" max="7" width="15.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="66.109375" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1054,51 +1084,51 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1</v>
-      </c>
-      <c r="C3" s="32" t="s">
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="32">
-        <v>1</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -1122,7 +1152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -1146,7 +1176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1170,7 +1200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -1194,7 +1224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -1218,7 +1248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -1242,7 +1272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -1266,7 +1296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -1290,7 +1320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>10</v>
       </c>
@@ -1314,7 +1344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -1338,7 +1368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1348,7 +1378,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1358,7 +1388,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1368,7 +1398,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1378,7 +1408,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1388,7 +1418,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1398,7 +1428,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1432,37 +1462,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="94.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="94.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1488,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1514,7 +1544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1540,7 +1570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1566,7 +1596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1592,7 +1622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1618,7 +1648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1644,7 +1674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1670,7 +1700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1696,7 +1726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1722,7 +1752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1748,7 +1778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1774,7 +1804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1800,7 +1830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1826,7 +1856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1852,7 +1882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -1878,7 +1908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1899,7 +1929,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -1925,7 +1955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1951,7 +1981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -1977,7 +2007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -2003,7 +2033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -2029,7 +2059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -2055,7 +2085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -2081,7 +2111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -2107,7 +2137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -2133,7 +2163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -2159,7 +2189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>27</v>
       </c>
@@ -2185,7 +2215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>28</v>
       </c>
@@ -2211,7 +2241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>29</v>
       </c>
@@ -2237,7 +2267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>30</v>
       </c>
@@ -2251,7 +2281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>31</v>
       </c>
@@ -2267,14 +2297,34 @@
       <c r="E33" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="28" t="s">
         <v>83</v>
       </c>
       <c r="H33" s="27" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>32</v>
+      </c>
+      <c r="B34" s="23">
+        <v>4</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425F21E-5F63-4DDA-83BB-3C2ED0172A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8185244-ECB1-4BF2-953F-F58A5AA2421D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="2895" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="93">
   <si>
     <t>Bug Log</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Low Impact</t>
+  </si>
+  <si>
+    <t>Landing page does not show what round the user is in</t>
+  </si>
+  <si>
+    <t>landing page does not show what the status of the round is</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -612,40 +618,9 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -661,22 +636,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1084,28 +1089,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="44" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10" style="44" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="44" customWidth="1"/>
-    <col min="8" max="8" width="66.140625" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="44"/>
+    <col min="1" max="1" width="13" style="33" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="10" style="33" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1134,48 +1139,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36">
-        <v>1</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="36">
-        <v>1</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="43">
+        <v>1</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="34"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="35"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -1421,7 +1426,7 @@
       <c r="A16" s="18">
         <v>12</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -1441,7 +1446,7 @@
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="34">
         <v>2</v>
       </c>
       <c r="C17" s="30" t="s">
@@ -1461,7 +1466,7 @@
       <c r="A18" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="35">
         <v>3</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -1470,7 +1475,7 @@
       <c r="D18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="36" t="s">
         <v>89</v>
       </c>
       <c r="F18" s="17"/>
@@ -1481,7 +1486,7 @@
       <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="35">
         <v>3</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -1490,7 +1495,7 @@
       <c r="D19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="36" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="17"/>
@@ -1501,7 +1506,7 @@
       <c r="A20" s="15">
         <v>15</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="35">
         <v>3</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -1510,7 +1515,7 @@
       <c r="D20" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="36" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="17"/>
@@ -1521,7 +1526,7 @@
       <c r="A21" s="18">
         <v>16</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="35">
         <v>3</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -1530,7 +1535,7 @@
       <c r="D21" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="36" t="s">
         <v>89</v>
       </c>
       <c r="F21" s="17"/>
@@ -1541,7 +1546,7 @@
       <c r="A22" s="15">
         <v>17</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="35">
         <v>3</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -1561,7 +1566,7 @@
       <c r="A23" s="18">
         <v>18</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="35">
         <v>3</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -1570,7 +1575,7 @@
       <c r="D23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="36" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="17"/>
@@ -1581,7 +1586,7 @@
       <c r="A24" s="15">
         <v>19</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="35">
         <v>3</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -1590,7 +1595,7 @@
       <c r="D24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="36" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="17"/>
@@ -1601,7 +1606,7 @@
       <c r="A25" s="18">
         <v>20</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="35">
         <v>3</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -1610,7 +1615,7 @@
       <c r="D25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="37" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1618,7 +1623,7 @@
       <c r="A26" s="15">
         <v>21</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="35">
         <v>3</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -1627,7 +1632,7 @@
       <c r="D26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1635,7 +1640,7 @@
       <c r="A27" s="18">
         <v>22</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="35">
         <v>3</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -1644,7 +1649,7 @@
       <c r="D27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1652,7 +1657,7 @@
       <c r="A28" s="15">
         <v>23</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="35">
         <v>3</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -1661,7 +1666,7 @@
       <c r="D28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="37" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1669,7 +1674,7 @@
       <c r="A29" s="18">
         <v>24</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="35">
         <v>3</v>
       </c>
       <c r="C29" s="30" t="s">
@@ -1678,7 +1683,7 @@
       <c r="D29" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1686,7 +1691,7 @@
       <c r="A30" s="15">
         <v>25</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="35">
         <v>3</v>
       </c>
       <c r="C30" s="30" t="s">
@@ -1695,7 +1700,7 @@
       <c r="D30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1703,7 +1708,7 @@
       <c r="A31" s="18">
         <v>26</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="35">
         <v>4</v>
       </c>
       <c r="C31" s="30" t="s">
@@ -1712,7 +1717,7 @@
       <c r="D31" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1720,7 +1725,7 @@
       <c r="A32" s="15">
         <v>27</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="38">
         <v>4</v>
       </c>
       <c r="C32" s="30" t="s">
@@ -1729,7 +1734,7 @@
       <c r="D32" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="37" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1737,7 +1742,7 @@
       <c r="A33" s="18">
         <v>28</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="35">
         <v>4</v>
       </c>
       <c r="C33" s="30" t="s">
@@ -1746,7 +1751,7 @@
       <c r="D33" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="37" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1754,7 +1759,7 @@
       <c r="A34" s="15">
         <v>29</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="35">
         <v>4</v>
       </c>
       <c r="C34" s="30" t="s">
@@ -1763,7 +1768,7 @@
       <c r="D34" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="37" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1771,7 +1776,7 @@
       <c r="A35" s="18">
         <v>30</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="35">
         <v>4</v>
       </c>
       <c r="C35" s="30" t="s">
@@ -1780,7 +1785,7 @@
       <c r="D35" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="37" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1788,7 +1793,7 @@
       <c r="A36" s="15">
         <v>31</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="35">
         <v>4</v>
       </c>
       <c r="C36" s="30" t="s">
@@ -1797,7 +1802,7 @@
       <c r="D36" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1805,7 +1810,7 @@
       <c r="A37" s="18">
         <v>32</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="35">
         <v>4</v>
       </c>
       <c r="C37" s="30" t="s">
@@ -1814,7 +1819,7 @@
       <c r="D37" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="37" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1842,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1861,16 +1866,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2184,59 +2189,43 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="22">
-        <v>3</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="24">
-        <v>43769</v>
-      </c>
-      <c r="G14" s="24">
-        <v>43771</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34">
+        <v>2</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="22">
-        <v>3</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="24">
-        <v>43769</v>
-      </c>
-      <c r="G15" s="24">
-        <v>43771</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>2</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>14</v>
       </c>
@@ -2244,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>35</v>
@@ -2259,10 +2248,10 @@
         <v>43771</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -2273,7 +2262,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>35</v>
@@ -2296,20 +2285,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="24">
         <v>43769</v>
       </c>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="24">
+        <v>43771</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -2317,25 +2311,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="24">
-        <v>43776</v>
+        <v>43769</v>
       </c>
       <c r="G19" s="24">
-        <v>43776</v>
+        <v>43771</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>18</v>
       </c>
@@ -2343,23 +2337,18 @@
         <v>3</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="F20" s="24">
-        <v>43776</v>
-      </c>
-      <c r="G20" s="24">
-        <v>43776</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>51</v>
-      </c>
+        <v>43769</v>
+      </c>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
@@ -2372,7 +2361,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>35</v>
@@ -2398,16 +2387,16 @@
         <v>49</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="24">
-        <v>43778</v>
+        <v>43776</v>
       </c>
       <c r="G22" s="24">
-        <v>43778</v>
+        <v>43776</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>51</v>
@@ -2424,22 +2413,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="24">
-        <v>43778</v>
+        <v>43776</v>
       </c>
       <c r="G23" s="24">
-        <v>43780</v>
+        <v>43776</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -2450,7 +2439,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>35</v>
@@ -2462,10 +2451,10 @@
         <v>43778</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -2473,16 +2462,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="24">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="G25" s="24">
         <v>43780</v>
@@ -2499,88 +2488,88 @@
         <v>3</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="24">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="G26" s="24">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
       <c r="B27" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>68</v>
+      <c r="F27" s="24">
+        <v>43780</v>
+      </c>
+      <c r="G27" s="24">
+        <v>43780</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="25">
-        <v>4</v>
+      <c r="B28" s="22">
+        <v>3</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>68</v>
+      <c r="F28" s="24">
+        <v>43780</v>
+      </c>
+      <c r="G28" s="24">
+        <v>43780</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
       <c r="B29" s="22">
         <v>4</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>35</v>
@@ -2596,17 +2585,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="25">
         <v>4</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>35</v>
@@ -2622,17 +2611,17 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
       <c r="B31" s="22">
         <v>4</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>35</v>
@@ -2640,70 +2629,122 @@
       <c r="F31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="15">
         <v>30</v>
       </c>
       <c r="B32" s="22">
         <v>4</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
       <c r="B33" s="22">
         <v>4</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>82</v>
+      <c r="F33" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
       <c r="B34" s="22">
         <v>4</v>
       </c>
       <c r="C34" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="22">
+        <v>4</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>34</v>
+      </c>
+      <c r="B36" s="22">
+        <v>4</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E36" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F36" s="27" t="s">
         <v>82</v>
       </c>
     </row>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8185244-ECB1-4BF2-953F-F58A5AA2421D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE5B25-C2A0-4BC7-B913-8BCD7BC7E3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="94">
   <si>
     <t>Bug Log</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>landing page does not show what the status of the round is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have to refresh the page between windows when closing and opening rounds </t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -637,6 +640,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,12 +689,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,16 +1113,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1139,48 +1151,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="48">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48">
+        <v>1</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="43">
-        <v>1</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="40" t="s">
+      <c r="F3" s="48">
+        <v>1</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="41"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="42"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -1462,58 +1474,58 @@
       <c r="G17" s="17"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="34">
+        <v>3</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="35">
-        <v>3</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B19" s="35">
+        <v>3</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D19" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E19" s="36" t="s">
         <v>89</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>14</v>
-      </c>
-      <c r="B19" s="35">
-        <v>3</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>15</v>
+      <c r="A20" s="18">
+        <v>14</v>
       </c>
       <c r="B20" s="35">
         <v>3</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>87</v>
@@ -1523,68 +1535,68 @@
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>16</v>
+      <c r="A21" s="15">
+        <v>15</v>
       </c>
       <c r="B21" s="35">
         <v>3</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <v>17</v>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>16</v>
       </c>
       <c r="B22" s="35">
         <v>3</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>18</v>
+      <c r="A23" s="15">
+        <v>17</v>
       </c>
       <c r="B23" s="35">
         <v>3</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>87</v>
+        <v>56</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <v>19</v>
+      <c r="A24" s="18">
+        <v>18</v>
       </c>
       <c r="B24" s="35">
         <v>3</v>
@@ -1593,18 +1605,18 @@
         <v>49</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>20</v>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>19</v>
       </c>
       <c r="B25" s="35">
         <v>3</v>
@@ -1613,15 +1625,18 @@
         <v>49</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>20</v>
       </c>
       <c r="B26" s="35">
         <v>3</v>
@@ -1630,15 +1645,15 @@
         <v>49</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
-        <v>22</v>
+      <c r="A27" s="15">
+        <v>21</v>
       </c>
       <c r="B27" s="35">
         <v>3</v>
@@ -1647,15 +1662,15 @@
         <v>49</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
-        <v>23</v>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>22</v>
       </c>
       <c r="B28" s="35">
         <v>3</v>
@@ -1664,151 +1679,151 @@
         <v>49</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>23</v>
+      </c>
+      <c r="B29" s="35">
+        <v>3</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E29" s="37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+    <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
         <v>24</v>
       </c>
-      <c r="B29" s="35">
-        <v>3</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="B30" s="35">
+        <v>3</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D30" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
-        <v>25</v>
-      </c>
-      <c r="B30" s="35">
-        <v>3</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>66</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>26</v>
+    <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>25</v>
       </c>
       <c r="B31" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
-        <v>27</v>
-      </c>
-      <c r="B32" s="38">
+      <c r="A32" s="18">
+        <v>26</v>
+      </c>
+      <c r="B32" s="35">
         <v>4</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>27</v>
+      </c>
+      <c r="B33" s="38">
+        <v>4</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
-        <v>28</v>
-      </c>
-      <c r="B33" s="35">
-        <v>4</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>74</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
-        <v>29</v>
+      <c r="A34" s="18">
+        <v>28</v>
       </c>
       <c r="B34" s="35">
         <v>4</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
-        <v>30</v>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>29</v>
       </c>
       <c r="B35" s="35">
         <v>4</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
-        <v>31</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>30</v>
       </c>
       <c r="B36" s="35">
         <v>4</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
-        <v>32</v>
+      <c r="A37" s="15">
+        <v>31</v>
       </c>
       <c r="B37" s="35">
         <v>4</v>
@@ -1817,9 +1832,26 @@
         <v>78</v>
       </c>
       <c r="D37" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>32</v>
+      </c>
+      <c r="B38" s="35">
+        <v>4</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E38" s="37" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1849,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1866,16 +1898,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2203,9 +2235,9 @@
         <v>91</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
@@ -2221,9 +2253,9 @@
         <v>92</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C6E9AA-2102-48F5-BCA2-947666608C7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997CDE2-DF52-4F58-8050-956E5031D5AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="129">
   <si>
     <t>Bug Log</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Matthew &amp; Vittorio</t>
   </si>
   <si>
-    <t>Vittorio, Matthew and Brendon</t>
-  </si>
-  <si>
     <t>Bid.csv cause PHP error upon bootstrap upload</t>
   </si>
   <si>
@@ -352,13 +349,84 @@
   </si>
   <si>
     <t>current bid is displayed as php error</t>
+  </si>
+  <si>
+    <t>add bids</t>
+  </si>
+  <si>
+    <t>Matthew and Brendon</t>
+  </si>
+  <si>
+    <t>Vittorio, Sheng Qin &amp; DaEun</t>
+  </si>
+  <si>
+    <t>Above 5 bids cause PHP error</t>
+  </si>
+  <si>
+    <t>Landing Page / bids</t>
+  </si>
+  <si>
+    <t>e$ prdce PHP errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon logging into admin page, PHP error is produce and unable to bootstrap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rounds clearing logic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon closing "round 1 opening" after bootstrap, cause PHP error and does not reflect on rounds in landing page.  </t>
+  </si>
+  <si>
+    <t>Drop bids</t>
+  </si>
+  <si>
+    <t>Reseloved</t>
+  </si>
+  <si>
+    <t>Dropped bids are reflect in database, however bids are not updated in UI</t>
+  </si>
+  <si>
+    <t>Drop bids is reflect in database, however bids and e$ are still refelcted in UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to add bid(s) for other schools at round 1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap error result in PHP error causes by Database due to incorrect column type </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Able to bid for cause with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pre-requisite </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcase works locally however produce error on AWS servers.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment </t>
+  </si>
+  <si>
+    <t>Databse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database crash as data on course and section are duplicated </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -430,6 +498,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -570,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -685,6 +760,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,33 +824,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,16 +1267,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1208,48 +1305,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44">
+      <c r="A3" s="54">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="54">
         <v>1</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="43"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
@@ -1496,13 +1593,15 @@
       <c r="B16" s="32">
         <v>2</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="39"/>
+      <c r="D16" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>88</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="16"/>
       <c r="H16" s="18"/>
@@ -1512,532 +1611,706 @@
       <c r="B17" s="32">
         <v>2</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="39"/>
+      <c r="C17" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>88</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="16"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="39"/>
+      <c r="B18" s="32">
+        <v>2</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="16"/>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
-        <v>12</v>
-      </c>
+      <c r="A19" s="17"/>
       <c r="B19" s="32">
         <v>2</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>86</v>
+      <c r="D19" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
-        <v>14</v>
-      </c>
+      <c r="A20" s="17"/>
       <c r="B20" s="32">
         <v>2</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>86</v>
+      <c r="C20" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="16"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="32">
         <v>2</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="39"/>
+      <c r="C21" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>88</v>
+      </c>
       <c r="F21" s="17"/>
       <c r="G21" s="16"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="32">
         <v>2</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="39"/>
+      <c r="C22" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="F22" s="17"/>
       <c r="G22" s="16"/>
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="21">
-        <v>3</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="39"/>
+      <c r="A23" s="17">
+        <v>12</v>
+      </c>
+      <c r="B23" s="32">
+        <v>2</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="F23" s="17"/>
       <c r="G23" s="16"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B24" s="32">
-        <v>3</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="16"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="32">
+        <v>2</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="32">
+        <v>2</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="32">
+        <v>2</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="32">
+        <v>2</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="32">
+        <v>2</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
+      <c r="B30" s="32">
+        <v>2</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="32">
+        <v>3</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="17"/>
+      <c r="B33" s="21">
+        <v>3</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17">
+        <v>3</v>
+      </c>
+      <c r="B34" s="32">
+        <v>3</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14">
         <v>13</v>
-      </c>
-      <c r="B25" s="33">
-        <v>3</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17">
-        <v>14</v>
-      </c>
-      <c r="B26" s="33">
-        <v>3</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
-        <v>15</v>
-      </c>
-      <c r="B27" s="33">
-        <v>3</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17">
-        <v>16</v>
-      </c>
-      <c r="B28" s="33">
-        <v>3</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
-        <v>17</v>
-      </c>
-      <c r="B29" s="33">
-        <v>3</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17">
-        <v>18</v>
-      </c>
-      <c r="B30" s="33">
-        <v>3</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
-        <v>19</v>
-      </c>
-      <c r="B31" s="33">
-        <v>3</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17">
-        <v>20</v>
-      </c>
-      <c r="B32" s="33">
-        <v>3</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
-        <v>21</v>
-      </c>
-      <c r="B33" s="33">
-        <v>3</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17">
-        <v>22</v>
-      </c>
-      <c r="B34" s="33">
-        <v>3</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
-        <v>23</v>
       </c>
       <c r="B35" s="33">
         <v>3</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B36" s="33">
         <v>3</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B37" s="33">
         <v>3</v>
       </c>
       <c r="C37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="17">
+        <v>16</v>
+      </c>
+      <c r="B38" s="33">
+        <v>3</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14">
+        <v>17</v>
+      </c>
+      <c r="B39" s="33">
+        <v>3</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17">
+        <v>18</v>
+      </c>
+      <c r="B40" s="33">
+        <v>3</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14">
+        <v>19</v>
+      </c>
+      <c r="B41" s="33">
+        <v>3</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17">
+        <v>20</v>
+      </c>
+      <c r="B42" s="33">
+        <v>3</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14">
+        <v>21</v>
+      </c>
+      <c r="B43" s="33">
+        <v>3</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="17">
+        <v>22</v>
+      </c>
+      <c r="B44" s="33">
+        <v>3</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
+        <v>23</v>
+      </c>
+      <c r="B45" s="33">
+        <v>3</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="17">
+        <v>24</v>
+      </c>
+      <c r="B46" s="33">
+        <v>3</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14">
+        <v>25</v>
+      </c>
+      <c r="B47" s="33">
+        <v>3</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D47" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E47" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17">
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="17">
         <v>26</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B48" s="33">
         <v>5</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C48" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D48" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E48" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14">
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14">
         <v>27</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B49" s="36">
         <v>5</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C49" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D49" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E49" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17">
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17">
         <v>28</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B50" s="33">
         <v>5</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C50" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D50" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E50" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14">
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="14">
         <v>29</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B51" s="33">
         <v>5</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C51" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D51" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E51" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="17">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="17">
         <v>30</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B52" s="33">
         <v>5</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C52" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D52" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E52" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17"/>
-      <c r="B43" s="21">
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="17"/>
+      <c r="B53" s="21">
         <v>5</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C53" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D53" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17"/>
-      <c r="B44" s="21">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="17"/>
+      <c r="B54" s="21">
         <v>5</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C54" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D54" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="14">
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="14">
         <v>31</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B55" s="33">
         <v>5</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C55" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D55" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E55" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17">
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="17">
         <v>32</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B56" s="33">
         <v>5</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C56" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D56" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E56" s="35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="35">
         <v>5</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C57" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D57" s="43" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2065,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2085,16 +2358,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2168,7 +2441,7 @@
         <v>43739</v>
       </c>
       <c r="G4" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>28</v>
@@ -2194,7 +2467,7 @@
         <v>43739</v>
       </c>
       <c r="G5" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>28</v>
@@ -2220,7 +2493,7 @@
         <v>43739</v>
       </c>
       <c r="G6" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>28</v>
@@ -2246,7 +2519,7 @@
         <v>43739</v>
       </c>
       <c r="G7" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>28</v>
@@ -2272,7 +2545,7 @@
         <v>43739</v>
       </c>
       <c r="G8" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>47</v>
@@ -2298,7 +2571,7 @@
         <v>43739</v>
       </c>
       <c r="G9" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>47</v>
@@ -2324,7 +2597,7 @@
         <v>43739</v>
       </c>
       <c r="G10" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>47</v>
@@ -2350,7 +2623,7 @@
         <v>43739</v>
       </c>
       <c r="G11" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>47</v>
@@ -2373,10 +2646,10 @@
         <v>34</v>
       </c>
       <c r="F12" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="G12" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>40</v>
@@ -2399,13 +2672,13 @@
         <v>34</v>
       </c>
       <c r="F13" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="G13" s="13">
-        <v>43758</v>
+        <v>43747</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2413,23 +2686,23 @@
       <c r="B14" s="32">
         <v>2</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="F14" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="G14" s="13">
-        <v>43754</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>40</v>
+        <v>43747</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2437,799 +2710,1027 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>108</v>
+      <c r="C15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>104</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="G15" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>109</v>
+      <c r="B16" s="32">
+        <v>2</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>107</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="G16" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>12</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
       <c r="B17" s="32">
         <v>2</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>90</v>
+      <c r="D17" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="F17" s="13">
-        <v>43754</v>
+        <v>43747</v>
       </c>
       <c r="G17" s="13">
-        <v>43754</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>13</v>
-      </c>
+        <v>43747</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
       <c r="B18" s="32">
         <v>2</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="13">
+        <v>43747</v>
+      </c>
+      <c r="G18" s="13">
+        <v>43748</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="13">
+        <v>43747</v>
+      </c>
+      <c r="G19" s="13">
+        <v>43747</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="13">
+        <v>43747</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43753</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>12</v>
+      </c>
+      <c r="B21" s="32">
+        <v>2</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D21" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="13">
+        <v>43747</v>
+      </c>
+      <c r="G21" s="13">
+        <v>43747</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>13</v>
+      </c>
+      <c r="B22" s="32">
+        <v>2</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="E22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="13">
+        <v>43747</v>
+      </c>
+      <c r="G22" s="13">
+        <v>43747</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="32">
+        <v>2</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="13">
+        <v>43747</v>
+      </c>
+      <c r="G23" s="13">
+        <v>43747</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="32">
+        <v>2</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="13">
+        <v>43747</v>
+      </c>
+      <c r="G24" s="13">
+        <v>43747</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="32">
+        <v>2</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="13">
+        <v>43748</v>
+      </c>
+      <c r="G25" s="13">
+        <v>43748</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="32">
+        <v>2</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="38">
+        <v>43748</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43748</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="32">
+        <v>2</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="38">
+        <v>43748</v>
+      </c>
+      <c r="G27" s="13">
+        <v>43748</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="32">
+        <v>2</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="38">
         <v>43754</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G28" s="38">
         <v>43754</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="32">
-        <v>2</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="13">
-        <v>43754</v>
-      </c>
-      <c r="G19" s="13">
-        <v>43754</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="32">
-        <v>2</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="21">
+      <c r="H28" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="32">
         <v>3</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C29" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D29" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="32">
+        <v>3</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="21">
+        <v>3</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="23">
+      <c r="E31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="23">
         <v>43769</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G31" s="23">
         <v>43771</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="21">
+      <c r="H31" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="21">
         <v>3</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C32" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D32" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="23">
+      <c r="E32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="23">
         <v>43769</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G32" s="23">
         <v>43771</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>14</v>
-      </c>
-      <c r="B23" s="21">
-        <v>3</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G23" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>15</v>
-      </c>
-      <c r="B24" s="21">
-        <v>3</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G24" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H24" s="59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>16</v>
-      </c>
-      <c r="B25" s="21">
-        <v>3</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G25" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>17</v>
-      </c>
-      <c r="B26" s="21">
-        <v>3</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G26" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H26" s="59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>18</v>
-      </c>
-      <c r="B27" s="21">
-        <v>3</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G27" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H27" s="59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>19</v>
-      </c>
-      <c r="B28" s="21">
-        <v>4</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="23">
-        <v>43776</v>
-      </c>
-      <c r="G28" s="23">
-        <v>43776</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="59"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
-        <v>20</v>
-      </c>
-      <c r="B29" s="21">
-        <v>4</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="23">
-        <v>43776</v>
-      </c>
-      <c r="G29" s="23">
-        <v>43776</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="59"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>21</v>
-      </c>
-      <c r="B30" s="21">
-        <v>4</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="23">
-        <v>43776</v>
-      </c>
-      <c r="G30" s="23">
-        <v>43776</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="59"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
-        <v>22</v>
-      </c>
-      <c r="B31" s="21">
-        <v>4</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="23">
-        <v>43778</v>
-      </c>
-      <c r="G31" s="23">
-        <v>43778</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="59"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
-        <v>23</v>
-      </c>
-      <c r="B32" s="21">
-        <v>4</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="23">
-        <v>43778</v>
-      </c>
-      <c r="G32" s="23">
-        <v>43780</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B33" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="23">
-        <v>43778</v>
+        <v>43769</v>
       </c>
       <c r="G33" s="23">
-        <v>43778</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="25"/>
+        <v>43771</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B34" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="23">
-        <v>43780</v>
+        <v>43769</v>
       </c>
       <c r="G34" s="23">
-        <v>43780</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="25"/>
+        <v>43771</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B35" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="23">
-        <v>43780</v>
+        <v>43769</v>
       </c>
       <c r="G35" s="23">
-        <v>43780</v>
+        <v>43771</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
+        <v>17</v>
+      </c>
+      <c r="B36" s="21">
+        <v>3</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="21">
-        <v>5</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>69</v>
-      </c>
       <c r="D36" s="22" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>68</v>
+      <c r="F36" s="23">
+        <v>43769</v>
+      </c>
+      <c r="G36" s="23">
+        <v>43771</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
-        <v>28</v>
-      </c>
-      <c r="B37" s="24">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B37" s="21">
+        <v>3</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="23">
+        <v>43769</v>
+      </c>
+      <c r="G37" s="23">
+        <v>43771</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B38" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>67</v>
+      <c r="F38" s="23">
+        <v>43776</v>
+      </c>
+      <c r="G38" s="23">
+        <v>43776</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>68</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B39" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>67</v>
+      <c r="F39" s="23">
+        <v>43776</v>
+      </c>
+      <c r="G39" s="23">
+        <v>43776</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>68</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I39" s="48"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
-        <v>31</v>
+      <c r="A40" s="11">
+        <v>21</v>
       </c>
       <c r="B40" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>67</v>
+      <c r="F40" s="23">
+        <v>43776</v>
+      </c>
+      <c r="G40" s="23">
+        <v>43776</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>79</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I40" s="48"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>32</v>
+      <c r="A41" s="14">
+        <v>22</v>
       </c>
       <c r="B41" s="21">
-        <v>5</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G41" s="23">
+        <v>43778</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>79</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I41" s="48"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
-        <v>33</v>
+      <c r="A42" s="11">
+        <v>23</v>
       </c>
       <c r="B42" s="21">
-        <v>5</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G42" s="23">
+        <v>43780</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B43" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G43" s="23">
+        <v>43778</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>68</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B44" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>81</v>
+      <c r="F44" s="23">
+        <v>43780</v>
+      </c>
+      <c r="G44" s="23">
+        <v>43780</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>68</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
+        <v>26</v>
+      </c>
+      <c r="B45" s="21">
+        <v>4</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="23">
+        <v>43780</v>
+      </c>
+      <c r="G45" s="23">
+        <v>43780</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>27</v>
+      </c>
+      <c r="B46" s="21">
+        <v>5</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>28</v>
+      </c>
+      <c r="B47" s="24">
+        <v>5</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>29</v>
+      </c>
+      <c r="B48" s="21">
+        <v>5</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
+        <v>30</v>
+      </c>
+      <c r="B49" s="21">
+        <v>5</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
+        <v>31</v>
+      </c>
+      <c r="B50" s="21">
+        <v>5</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>32</v>
+      </c>
+      <c r="B51" s="21">
+        <v>5</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
+        <v>33</v>
+      </c>
+      <c r="B52" s="21">
+        <v>5</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
+        <v>34</v>
+      </c>
+      <c r="B53" s="21">
+        <v>5</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>35</v>
+      </c>
+      <c r="B54" s="21">
+        <v>5</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
         <v>36</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B55" s="21">
         <v>5</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C55" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D55" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="E55" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G55" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H55" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
+    <row r="56" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
         <v>37</v>
       </c>
     </row>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997CDE2-DF52-4F58-8050-956E5031D5AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63A6F1-F564-4FA6-965A-98E390A2F821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="145">
   <si>
     <t>Bug Log</t>
   </si>
@@ -420,6 +420,54 @@
   </si>
   <si>
     <t xml:space="preserve">Database crash as data on course and section are duplicated </t>
+  </si>
+  <si>
+    <t>When bidding for multiple courses, errors prompts does not differentiate which course and section is causing which error(s)</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP error in login page  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundancy double sort function through SQL retrieval and creating a function to retrieve course(s) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round 2 Clearing logic into function </t>
+  </si>
+  <si>
+    <t>Fix duplicate data input in Round 1 Clearing logic</t>
+  </si>
+  <si>
+    <t>Rounds clearing logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid’s vacancy limit is not being capture as round 1 opening is closed   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boostrap validation logic error </t>
+  </si>
+  <si>
+    <t>Round 1 opening bidding bug as e$ is not updated.</t>
+  </si>
+  <si>
+    <t>Bootstrap Validation Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e$ produce alphanumeric and long string values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datebase &amp; UI </t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug fixing errors in JSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug fixing errors in JSON due to dusplay display output error. </t>
   </si>
 </sst>
 </file>
@@ -557,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -623,19 +671,6 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -645,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -763,7 +798,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,59 +825,50 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1284,7 @@
     <col min="1" max="1" width="13" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="31" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="139.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="35" customWidth="1"/>
     <col min="6" max="6" width="10" style="31" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="31" customWidth="1"/>
@@ -1267,16 +1293,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1304,53 +1330,81 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54">
+    <row r="3" spans="1:8" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="51">
         <v>1</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="51">
         <v>1</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="51" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -1359,7 +1413,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>84</v>
@@ -1374,7 +1428,7 @@
     </row>
     <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -1383,7 +1437,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>84</v>
@@ -1396,9 +1450,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -1407,7 +1461,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>84</v>
@@ -1422,7 +1476,7 @@
     </row>
     <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
@@ -1431,7 +1485,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>84</v>
@@ -1446,7 +1500,7 @@
     </row>
     <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -1455,7 +1509,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>84</v>
@@ -1470,7 +1524,7 @@
     </row>
     <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -1479,7 +1533,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>84</v>
@@ -1493,17 +1547,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>84</v>
@@ -1517,22 +1571,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1</v>
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="17">
         <v>1</v>
       </c>
       <c r="G13" s="16"/>
@@ -1540,53 +1594,41 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19">
-        <v>10</v>
-      </c>
-      <c r="B14" s="19">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="32">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
+      <c r="D14" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
-        <v>11</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
+      <c r="D15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="17"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
@@ -1594,13 +1636,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>88</v>
+        <v>107</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="16"/>
@@ -1611,14 +1653,14 @@
       <c r="B17" s="32">
         <v>2</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>27</v>
+      <c r="C17" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>88</v>
+        <v>108</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="16"/>
@@ -1629,11 +1671,11 @@
       <c r="B18" s="32">
         <v>2</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>106</v>
+      <c r="C18" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>84</v>
@@ -1648,28 +1690,28 @@
         <v>2</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>84</v>
+        <v>115</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="32">
         <v>2</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>109</v>
+      <c r="C20" s="57" t="s">
+        <v>116</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>84</v>
@@ -1679,77 +1721,73 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="17">
+        <v>12</v>
+      </c>
       <c r="B21" s="32">
         <v>2</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>88</v>
+      <c r="C21" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="16"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>14</v>
+      </c>
       <c r="B22" s="32">
         <v>2</v>
       </c>
-      <c r="C22" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>84</v>
+      <c r="C22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="16"/>
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
-        <v>12</v>
-      </c>
+      <c r="A23" s="17"/>
       <c r="B23" s="32">
         <v>2</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>86</v>
-      </c>
+      <c r="C23" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="39"/>
       <c r="F23" s="17"/>
       <c r="G23" s="16"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17">
-        <v>14</v>
-      </c>
+      <c r="A24" s="17"/>
       <c r="B24" s="32">
         <v>2</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>86</v>
-      </c>
+      <c r="C24" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="39"/>
       <c r="F24" s="17"/>
       <c r="G24" s="16"/>
       <c r="H24" s="18"/>
@@ -1760,12 +1798,12 @@
         <v>2</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="40"/>
       <c r="F25" s="17"/>
       <c r="G25" s="16"/>
       <c r="H25" s="18"/>
@@ -1776,12 +1814,12 @@
         <v>2</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="39"/>
+        <v>120</v>
+      </c>
+      <c r="E26" s="40"/>
       <c r="F26" s="17"/>
       <c r="G26" s="16"/>
       <c r="H26" s="18"/>
@@ -1792,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="17"/>
@@ -1808,10 +1846,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>128</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="17"/>
@@ -1821,13 +1859,13 @@
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>124</v>
+      <c r="D29" s="54" t="s">
+        <v>122</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="17"/>
@@ -1837,13 +1875,13 @@
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>125</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="17"/>
@@ -1855,201 +1893,173 @@
       <c r="B31" s="32">
         <v>3</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="40"/>
+      <c r="C31" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="50"/>
       <c r="F31" s="17"/>
       <c r="G31" s="16"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
-      <c r="B32" s="32">
-        <v>3</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="40"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="16"/>
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
-      <c r="B33" s="21">
-        <v>3</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="39"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="16"/>
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17">
-        <v>3</v>
-      </c>
-      <c r="B34" s="32">
-        <v>3</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>86</v>
-      </c>
+      <c r="A34" s="17"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="50"/>
       <c r="F34" s="17"/>
       <c r="G34" s="16"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
-        <v>13</v>
-      </c>
-      <c r="B35" s="33">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="17"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="50"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="17"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="17"/>
+      <c r="B39" s="21">
         <v>3</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17">
-        <v>14</v>
-      </c>
-      <c r="B36" s="33">
-        <v>3</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14">
-        <v>15</v>
-      </c>
-      <c r="B37" s="33">
-        <v>3</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17">
-        <v>16</v>
-      </c>
-      <c r="B38" s="33">
-        <v>3</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14">
-        <v>17</v>
-      </c>
-      <c r="B39" s="33">
-        <v>3</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="16"/>
+      <c r="C39" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="17"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
-        <v>18</v>
-      </c>
-      <c r="B40" s="33">
         <v>3</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="34" t="s">
+      <c r="B40" s="32">
+        <v>3</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B41" s="33">
         <v>3</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>88</v>
@@ -2060,24 +2070,27 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B42" s="33">
         <v>3</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="34" t="s">
         <v>86</v>
       </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B43" s="33">
         <v>3</v>
@@ -2086,245 +2099,402 @@
         <v>48</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B44" s="33">
         <v>3</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B45" s="33">
         <v>3</v>
       </c>
       <c r="C45" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="17">
+        <v>18</v>
+      </c>
+      <c r="B49" s="33">
+        <v>3</v>
+      </c>
+      <c r="C49" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="35" t="s">
+      <c r="D49" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="34" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17">
-        <v>24</v>
-      </c>
-      <c r="B46" s="33">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14">
+        <v>19</v>
+      </c>
+      <c r="B50" s="33">
         <v>3</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14">
-        <v>25</v>
-      </c>
-      <c r="B47" s="33">
+      <c r="C50" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="17">
+        <v>20</v>
+      </c>
+      <c r="B51" s="33">
         <v>3</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="17">
-        <v>26</v>
-      </c>
-      <c r="B48" s="33">
-        <v>5</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14">
-        <v>27</v>
-      </c>
-      <c r="B49" s="36">
-        <v>5</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17">
-        <v>28</v>
-      </c>
-      <c r="B50" s="33">
-        <v>5</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14">
-        <v>29</v>
-      </c>
-      <c r="B51" s="33">
-        <v>5</v>
-      </c>
       <c r="C51" s="29" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17">
-        <v>30</v>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="14">
+        <v>21</v>
       </c>
       <c r="B52" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="17"/>
-      <c r="B53" s="21">
-        <v>5</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="17"/>
-      <c r="B54" s="21">
-        <v>5</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14">
-        <v>31</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="17">
+        <v>22</v>
+      </c>
+      <c r="B53" s="33">
+        <v>3</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14">
+        <v>23</v>
+      </c>
+      <c r="B54" s="33">
+        <v>3</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="17">
+        <v>24</v>
       </c>
       <c r="B55" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="17">
+    <row r="56" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="14">
+        <v>25</v>
+      </c>
+      <c r="B56" s="33">
+        <v>3</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="17">
+        <v>26</v>
+      </c>
+      <c r="B57" s="33">
+        <v>5</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14">
+        <v>27</v>
+      </c>
+      <c r="B58" s="36">
+        <v>5</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="17">
+        <v>28</v>
+      </c>
+      <c r="B59" s="33">
+        <v>5</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="14">
+        <v>29</v>
+      </c>
+      <c r="B60" s="33">
+        <v>5</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="17">
+        <v>30</v>
+      </c>
+      <c r="B61" s="33">
+        <v>5</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="17"/>
+      <c r="B62" s="21">
+        <v>5</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="17"/>
+      <c r="B63" s="21">
+        <v>5</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="14">
+        <v>31</v>
+      </c>
+      <c r="B64" s="33">
+        <v>5</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="17">
         <v>32</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B65" s="33">
         <v>5</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C65" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D65" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E65" s="35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="35">
         <v>5</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C66" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D66" s="43" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
@@ -2338,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2519,7 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="94.33203125" customWidth="1"/>
+    <col min="4" max="4" width="102.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.44140625" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
@@ -2358,16 +2528,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2677,7 +2847,7 @@
       <c r="G13" s="13">
         <v>43747</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2701,7 +2871,7 @@
       <c r="G14" s="13">
         <v>43747</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2710,7 +2880,7 @@
       <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="55" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="43" t="s">
@@ -2734,7 +2904,7 @@
       <c r="B16" s="32">
         <v>2</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="55" t="s">
         <v>106</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2758,7 +2928,7 @@
       <c r="B17" s="32">
         <v>2</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="56" t="s">
         <v>72</v>
       </c>
       <c r="D17" s="43" t="s">
@@ -2782,7 +2952,7 @@
       <c r="B18" s="32">
         <v>2</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="56" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -2804,7 +2974,7 @@
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="56" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="43" t="s">
@@ -2819,14 +2989,14 @@
       <c r="G19" s="13">
         <v>43747</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="57" t="s">
         <v>116</v>
       </c>
       <c r="D20" s="43" t="s">
@@ -2841,7 +3011,7 @@
       <c r="G20" s="13">
         <v>43753</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2867,7 +3037,7 @@
       <c r="G21" s="13">
         <v>43747</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2893,7 +3063,7 @@
       <c r="G22" s="13">
         <v>43747</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2917,7 +3087,7 @@
       <c r="G23" s="13">
         <v>43747</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2941,7 +3111,7 @@
       <c r="G24" s="13">
         <v>43747</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3025,7 +3195,7 @@
       <c r="C28" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="59" t="s">
         <v>128</v>
       </c>
       <c r="E28" s="15"/>
@@ -3065,7 +3235,7 @@
       <c r="C30" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="58" t="s">
         <v>125</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -3077,662 +3247,914 @@
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="21">
-        <v>3</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>102</v>
+      <c r="B31" s="32"/>
+      <c r="C31" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>131</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G31" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>52</v>
+        <v>119</v>
+      </c>
+      <c r="F31" s="38">
+        <v>43754</v>
+      </c>
+      <c r="G31" s="38">
+        <v>43754</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="21">
+      <c r="B32" s="32"/>
+      <c r="C32" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="38">
+        <v>43757</v>
+      </c>
+      <c r="G32" s="23">
+        <v>43765</v>
+      </c>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="38">
+        <v>43758</v>
+      </c>
+      <c r="G33" s="38">
+        <v>43766</v>
+      </c>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="38">
+        <v>43758</v>
+      </c>
+      <c r="G34" s="38">
+        <v>43758</v>
+      </c>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="38">
+        <v>43758</v>
+      </c>
+      <c r="G35" s="23">
+        <v>43765</v>
+      </c>
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="32">
         <v>3</v>
       </c>
-      <c r="C32" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G32" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
-        <v>14</v>
-      </c>
-      <c r="B33" s="21">
-        <v>3</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G33" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>15</v>
-      </c>
-      <c r="B34" s="21">
-        <v>3</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G34" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
-        <v>16</v>
-      </c>
-      <c r="B35" s="21">
-        <v>3</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="23">
-        <v>43769</v>
-      </c>
-      <c r="G35" s="23">
-        <v>43771</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
-        <v>17</v>
-      </c>
-      <c r="B36" s="21">
-        <v>3</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>53</v>
+      <c r="C36" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>129</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="F36" s="23">
-        <v>43769</v>
+        <v>43766</v>
       </c>
       <c r="G36" s="23">
-        <v>43771</v>
+        <v>43766</v>
       </c>
       <c r="H36" s="48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
-        <v>18</v>
-      </c>
-      <c r="B37" s="21">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="32">
         <v>3</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="47" t="s">
+      <c r="C37" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="23">
+        <v>43767</v>
+      </c>
+      <c r="G37" s="23">
+        <v>43767</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="23">
+        <v>43767</v>
+      </c>
+      <c r="G38" s="23">
+        <v>43767</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="21">
+        <v>3</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="23">
         <v>43769</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G39" s="23">
         <v>43771</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H39" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="21">
+        <v>3</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="23">
+        <v>43769</v>
+      </c>
+      <c r="G40" s="23">
+        <v>43771</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>14</v>
+      </c>
+      <c r="B41" s="21">
+        <v>3</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="23">
+        <v>43769</v>
+      </c>
+      <c r="G41" s="23">
+        <v>43771</v>
+      </c>
+      <c r="H41" s="48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>19</v>
-      </c>
-      <c r="B38" s="21">
-        <v>4</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="23">
-        <v>43776</v>
-      </c>
-      <c r="G38" s="23">
-        <v>43776</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="48"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
-        <v>20</v>
-      </c>
-      <c r="B39" s="21">
-        <v>4</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="23">
-        <v>43776</v>
-      </c>
-      <c r="G39" s="23">
-        <v>43776</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="48"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>21</v>
-      </c>
-      <c r="B40" s="21">
-        <v>4</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="23">
-        <v>43776</v>
-      </c>
-      <c r="G40" s="23">
-        <v>43776</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="48"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <v>22</v>
-      </c>
-      <c r="B41" s="21">
-        <v>4</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="23">
-        <v>43778</v>
-      </c>
-      <c r="G41" s="23">
-        <v>43778</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="48"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B42" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F42" s="23">
-        <v>43778</v>
+        <v>43769</v>
       </c>
       <c r="G42" s="23">
-        <v>43780</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="48"/>
-    </row>
-    <row r="43" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43771</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B43" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="23">
+        <v>43769</v>
+      </c>
+      <c r="G43" s="23">
+        <v>43771</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>17</v>
+      </c>
+      <c r="B44" s="21">
+        <v>3</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="23">
+        <v>43769</v>
+      </c>
+      <c r="G44" s="23">
+        <v>43771</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>18</v>
+      </c>
+      <c r="B45" s="21">
+        <v>3</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="23">
+        <v>43769</v>
+      </c>
+      <c r="G45" s="23">
+        <v>43771</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="21">
+        <v>4</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="23">
+        <v>43774</v>
+      </c>
+      <c r="G46" s="23">
+        <v>43774</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="23">
+        <v>43774</v>
+      </c>
+      <c r="G47" s="23">
+        <v>43774</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="23">
+        <v>43774</v>
+      </c>
+      <c r="G48" s="23">
+        <v>43777</v>
+      </c>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="44"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="23">
+        <v>43774</v>
+      </c>
+      <c r="G49" s="23">
+        <v>43777</v>
+      </c>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>19</v>
+      </c>
+      <c r="B50" s="21">
+        <v>4</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G50" s="23">
+        <v>43778</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="48"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
+        <v>20</v>
+      </c>
+      <c r="B51" s="21">
+        <v>4</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G51" s="23">
+        <v>43778</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="48"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>21</v>
+      </c>
+      <c r="B52" s="21">
+        <v>4</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G52" s="23">
+        <v>43778</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="48"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
+        <v>22</v>
+      </c>
+      <c r="B53" s="21">
+        <v>4</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G53" s="23">
+        <v>43778</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="48"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>23</v>
+      </c>
+      <c r="B54" s="21">
+        <v>4</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G54" s="23">
+        <v>43778</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="48"/>
+    </row>
+    <row r="55" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>24</v>
+      </c>
+      <c r="B55" s="21">
+        <v>4</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="23">
+      <c r="E55" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="23">
         <v>43778</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G55" s="23">
         <v>43778</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H55" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
         <v>25</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B56" s="21">
         <v>4</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D56" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="23">
+      <c r="E56" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="23">
         <v>43780</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G56" s="23">
         <v>43780</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H56" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
         <v>26</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B57" s="21">
         <v>4</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D57" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="23">
+      <c r="E57" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="23">
         <v>43780</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G57" s="23">
         <v>43780</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H57" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
         <v>27</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B58" s="21">
         <v>5</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D58" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="23" t="s">
+      <c r="E58" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G58" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H58" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
         <v>28</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B59" s="24">
         <v>5</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D59" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="23" t="s">
+      <c r="E59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G59" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H59" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
         <v>29</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B60" s="21">
         <v>5</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D60" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="23" t="s">
+      <c r="E60" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G60" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H60" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
         <v>30</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B61" s="21">
         <v>5</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D61" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="23" t="s">
+      <c r="E61" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G61" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H61" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
         <v>31</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B62" s="21">
         <v>5</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C62" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D62" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="23" t="s">
+      <c r="E62" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G62" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H62" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
         <v>32</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B63" s="21">
         <v>5</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C63" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D63" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="23" t="s">
+      <c r="E63" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G63" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H63" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
         <v>33</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B64" s="21">
         <v>5</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C64" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D64" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="23" t="s">
+      <c r="E64" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G64" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H64" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
-        <v>34</v>
-      </c>
-      <c r="B53" s="21">
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>34</v>
+      </c>
+      <c r="B65" s="21">
         <v>5</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C65" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D65" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="26" t="s">
+      <c r="E65" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G65" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H65" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
         <v>35</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B66" s="21">
         <v>5</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D66" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="26" t="s">
+      <c r="E66" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G66" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H66" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
         <v>36</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B67" s="21">
         <v>5</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C67" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D67" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="26" t="s">
+      <c r="E67" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G67" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H67" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
-        <v>37</v>
-      </c>
+    <row r="68" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63A6F1-F564-4FA6-965A-98E390A2F821}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601FBA3E-96D2-4324-905A-E1E80949020D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="149">
   <si>
     <t>Bug Log</t>
   </si>
@@ -468,6 +468,18 @@
   </si>
   <si>
     <t xml:space="preserve">Bug fixing errors in JSON due to dusplay display output error. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round 2 logic error, results not displaying immediately upon bidding  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issues with bid states within database  </t>
+  </si>
+  <si>
+    <t>Display PHP error at round 1 closing of viewing of bid results</t>
+  </si>
+  <si>
+    <t>JSON tracker display error upon running JSON testcases</t>
   </si>
 </sst>
 </file>
@@ -853,6 +865,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,15 +881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:D48"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,25 +1296,25 @@
     <col min="1" max="1" width="13" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="31" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="139.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="172.33203125" style="31" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="35" customWidth="1"/>
     <col min="6" max="6" width="10" style="31" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="128.21875" style="31" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1330,7 +1342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="51">
         <v>1</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1402,8 +1414,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="51">
         <v>4</v>
       </c>
       <c r="B6" s="11">
@@ -1426,7 +1438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1450,7 +1462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1474,8 +1486,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51">
         <v>7</v>
       </c>
       <c r="B9" s="11">
@@ -1498,7 +1510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1522,7 +1534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1546,8 +1558,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="51">
         <v>10</v>
       </c>
       <c r="B12" s="19">
@@ -1570,8 +1582,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="B13" s="17">
@@ -1594,8 +1606,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
       <c r="B14" s="32">
         <v>2</v>
       </c>
@@ -1612,8 +1626,10 @@
       <c r="G14" s="16"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="51">
+        <v>13</v>
+      </c>
       <c r="B15" s="32">
         <v>2</v>
       </c>
@@ -1630,8 +1646,10 @@
       <c r="G15" s="16"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
       <c r="B16" s="32">
         <v>2</v>
       </c>
@@ -1648,8 +1666,10 @@
       <c r="G16" s="16"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -1666,8 +1686,10 @@
       <c r="G17" s="16"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="51">
+        <v>16</v>
+      </c>
       <c r="B18" s="32">
         <v>2</v>
       </c>
@@ -1684,8 +1706,10 @@
       <c r="G18" s="16"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
       <c r="B19" s="32">
         <v>2</v>
       </c>
@@ -1702,8 +1726,10 @@
       <c r="G19" s="16"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
       <c r="B20" s="32">
         <v>2</v>
       </c>
@@ -1720,9 +1746,9 @@
       <c r="G20" s="16"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
-        <v>12</v>
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="51">
+        <v>19</v>
       </c>
       <c r="B21" s="32">
         <v>2</v>
@@ -1740,9 +1766,9 @@
       <c r="G21" s="16"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
-        <v>14</v>
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>20</v>
       </c>
       <c r="B22" s="32">
         <v>2</v>
@@ -1760,8 +1786,10 @@
       <c r="G22" s="16"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
       <c r="B23" s="32">
         <v>2</v>
       </c>
@@ -1776,8 +1804,10 @@
       <c r="G23" s="16"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="51">
+        <v>22</v>
+      </c>
       <c r="B24" s="32">
         <v>2</v>
       </c>
@@ -1792,8 +1822,10 @@
       <c r="G24" s="16"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -1808,8 +1840,10 @@
       <c r="G25" s="16"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
       <c r="B26" s="32">
         <v>2</v>
       </c>
@@ -1824,8 +1858,10 @@
       <c r="G26" s="16"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17"/>
+    <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="51">
+        <v>25</v>
+      </c>
       <c r="B27" s="32">
         <v>2</v>
       </c>
@@ -1840,8 +1876,10 @@
       <c r="G27" s="16"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
       <c r="B28" s="32">
         <v>2</v>
       </c>
@@ -1856,8 +1894,10 @@
       <c r="G28" s="16"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
       <c r="B29" s="32">
         <v>3</v>
       </c>
@@ -1872,8 +1912,10 @@
       <c r="G29" s="16"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="51">
+        <v>28</v>
+      </c>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -1888,12 +1930,14 @@
       <c r="G30" s="16"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
       <c r="B31" s="32">
         <v>3</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="60" t="s">
         <v>130</v>
       </c>
       <c r="D31" s="58" t="s">
@@ -1904,9 +1948,13 @@
       <c r="G31" s="16"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="32"/>
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="32">
+        <v>3</v>
+      </c>
       <c r="C32" s="57" t="s">
         <v>116</v>
       </c>
@@ -1920,9 +1968,13 @@
       <c r="G32" s="16"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="32"/>
+    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="51">
+        <v>31</v>
+      </c>
+      <c r="B33" s="32">
+        <v>3</v>
+      </c>
       <c r="C33" s="57" t="s">
         <v>135</v>
       </c>
@@ -1936,9 +1988,13 @@
       <c r="G33" s="16"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17"/>
-      <c r="B34" s="32"/>
+    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="32">
+        <v>3</v>
+      </c>
       <c r="C34" s="45" t="s">
         <v>101</v>
       </c>
@@ -1950,9 +2006,13 @@
       <c r="G34" s="16"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="17"/>
-      <c r="B35" s="32"/>
+    <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="32">
+        <v>3</v>
+      </c>
       <c r="C35" s="57" t="s">
         <v>116</v>
       </c>
@@ -1964,9 +2024,13 @@
       <c r="G35" s="16"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
-      <c r="B36" s="32"/>
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="51">
+        <v>34</v>
+      </c>
+      <c r="B36" s="32">
+        <v>3</v>
+      </c>
       <c r="C36" s="42" t="s">
         <v>101</v>
       </c>
@@ -1978,9 +2042,13 @@
       <c r="G36" s="16"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17"/>
-      <c r="B37" s="32"/>
+    <row r="37" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="32">
+        <v>3</v>
+      </c>
       <c r="C37" s="20" t="s">
         <v>45</v>
       </c>
@@ -1994,24 +2062,30 @@
       <c r="G37" s="16"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17"/>
-      <c r="B38" s="32"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="32">
+        <v>3</v>
+      </c>
       <c r="C38" s="57" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="61" t="s">
         <v>89</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="16"/>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="17"/>
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="51">
+        <v>37</v>
+      </c>
       <c r="B39" s="21">
         <v>3</v>
       </c>
@@ -2021,16 +2095,16 @@
       <c r="D39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="61" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="16"/>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17">
-        <v>3</v>
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>38</v>
       </c>
       <c r="B40" s="32">
         <v>3</v>
@@ -2048,9 +2122,9 @@
       <c r="G40" s="16"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14">
-        <v>13</v>
+    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>39</v>
       </c>
       <c r="B41" s="33">
         <v>3</v>
@@ -2068,9 +2142,9 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="17">
-        <v>14</v>
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="51">
+        <v>40</v>
       </c>
       <c r="B42" s="33">
         <v>3</v>
@@ -2088,9 +2162,9 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14">
-        <v>15</v>
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>41</v>
       </c>
       <c r="B43" s="33">
         <v>3</v>
@@ -2108,9 +2182,9 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17">
-        <v>16</v>
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>42</v>
       </c>
       <c r="B44" s="33">
         <v>3</v>
@@ -2128,9 +2202,9 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="14">
-        <v>17</v>
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="51">
+        <v>43</v>
       </c>
       <c r="B45" s="33">
         <v>3</v>
@@ -2148,9 +2222,13 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14"/>
-      <c r="B46" s="33"/>
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="33">
+        <v>4</v>
+      </c>
       <c r="C46" s="42" t="s">
         <v>27</v>
       </c>
@@ -2164,10 +2242,14 @@
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="65" t="s">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="33">
+        <v>4</v>
+      </c>
+      <c r="C47" s="62" t="s">
         <v>141</v>
       </c>
       <c r="D47" s="44" t="s">
@@ -2180,10 +2262,14 @@
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="65" t="s">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="51">
+        <v>46</v>
+      </c>
+      <c r="B48" s="33">
+        <v>4</v>
+      </c>
+      <c r="C48" s="62" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="44" t="s">
@@ -2196,302 +2282,392 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="17">
-        <v>18</v>
+    <row r="49" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <v>47</v>
       </c>
       <c r="B49" s="33">
-        <v>3</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14">
-        <v>19</v>
+    <row r="50" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
+        <v>48</v>
       </c>
       <c r="B50" s="33">
-        <v>3</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>88</v>
+        <v>4</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="17">
-        <v>20</v>
+    <row r="51" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="51">
+        <v>49</v>
       </c>
       <c r="B51" s="33">
-        <v>3</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>147</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14">
-        <v>21</v>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="11">
+        <v>50</v>
       </c>
       <c r="B52" s="33">
-        <v>3</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="17">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>51</v>
       </c>
       <c r="B53" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="51">
+        <v>52</v>
       </c>
       <c r="B54" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="33">
+        <v>4</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="17">
-        <v>24</v>
-      </c>
-      <c r="B55" s="33">
-        <v>3</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14">
-        <v>25</v>
+    <row r="56" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="11">
+        <v>54</v>
       </c>
       <c r="B56" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="17">
-        <v>26</v>
+    <row r="57" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="51">
+        <v>55</v>
       </c>
       <c r="B57" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14">
-        <v>27</v>
-      </c>
-      <c r="B58" s="36">
-        <v>5</v>
+    <row r="58" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="33">
+        <v>4</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E58" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="17">
-        <v>28</v>
+    <row r="59" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="11">
+        <v>57</v>
       </c>
       <c r="B59" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="14">
-        <v>29</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="51">
+        <v>58</v>
       </c>
       <c r="B60" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="17">
-        <v>30</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
+        <v>59</v>
       </c>
       <c r="B61" s="33">
         <v>5</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="17"/>
-      <c r="B62" s="21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="36">
         <v>5</v>
       </c>
-      <c r="C62" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="17"/>
-      <c r="B63" s="21">
+      <c r="C62" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="51">
+        <v>61</v>
+      </c>
+      <c r="B63" s="33">
         <v>5</v>
       </c>
-      <c r="C63" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14">
-        <v>31</v>
+      <c r="C63" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11">
+        <v>62</v>
       </c>
       <c r="B64" s="33">
         <v>5</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="17">
-        <v>32</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11">
+        <v>63</v>
       </c>
       <c r="B65" s="33">
         <v>5</v>
       </c>
       <c r="C65" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="51">
+        <v>64</v>
+      </c>
+      <c r="B66" s="21">
+        <v>5</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="21">
+        <v>5</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="33">
+        <v>5</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D68" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="51">
+        <v>67</v>
+      </c>
+      <c r="B69" s="33">
+        <v>5</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E69" s="35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="35">
+    <row r="70" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="35">
         <v>5</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C70" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D70" s="43" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -2508,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2695,7 @@
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="102.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="172.33203125" customWidth="1"/>
     <col min="5" max="5" width="28.44140625" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
@@ -2528,16 +2704,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2565,7 +2741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2591,7 +2767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -2617,7 +2793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2643,8 +2819,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+    <row r="6" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="14">
@@ -2669,8 +2845,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="14">
@@ -2695,8 +2871,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+    <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="14">
@@ -2721,7 +2897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2747,7 +2923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -2773,7 +2949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -2799,8 +2975,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+    <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="B12" s="14">
@@ -2825,8 +3001,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="17">
@@ -2851,8 +3027,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
       <c r="B14" s="32">
         <v>2</v>
       </c>
@@ -2875,8 +3053,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
       <c r="B15" s="32">
         <v>2</v>
       </c>
@@ -2899,8 +3079,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
       <c r="B16" s="32">
         <v>2</v>
       </c>
@@ -2923,8 +3105,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
       <c r="B17" s="32">
         <v>2</v>
       </c>
@@ -2947,8 +3131,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
       <c r="B18" s="32">
         <v>2</v>
       </c>
@@ -2971,9 +3157,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="32"/>
+    <row r="19" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="32">
+        <v>2</v>
+      </c>
       <c r="C19" s="56" t="s">
         <v>77</v>
       </c>
@@ -2993,9 +3183,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="32"/>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="32">
+        <v>2</v>
+      </c>
       <c r="C20" s="57" t="s">
         <v>116</v>
       </c>
@@ -3015,9 +3209,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>12</v>
+    <row r="21" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>19</v>
       </c>
       <c r="B21" s="32">
         <v>2</v>
@@ -3041,9 +3235,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>13</v>
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>20</v>
       </c>
       <c r="B22" s="32">
         <v>2</v>
@@ -3067,8 +3261,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
       <c r="B23" s="32">
         <v>2</v>
       </c>
@@ -3091,8 +3287,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
       <c r="B24" s="32">
         <v>2</v>
       </c>
@@ -3115,8 +3313,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>23</v>
+      </c>
       <c r="B25" s="32">
         <v>2</v>
       </c>
@@ -3139,8 +3339,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
       <c r="B26" s="32">
         <v>2</v>
       </c>
@@ -3163,8 +3365,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
       <c r="B27" s="32">
         <v>2</v>
       </c>
@@ -3187,8 +3391,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14">
+        <v>26</v>
+      </c>
       <c r="B28" s="32">
         <v>2</v>
       </c>
@@ -3209,8 +3415,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
       <c r="B29" s="32">
         <v>3</v>
       </c>
@@ -3227,8 +3435,10 @@
       <c r="G29" s="38"/>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
       <c r="B30" s="32">
         <v>3</v>
       </c>
@@ -3245,10 +3455,14 @@
       <c r="G30" s="38"/>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="63" t="s">
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="32">
+        <v>3</v>
+      </c>
+      <c r="C31" s="60" t="s">
         <v>130</v>
       </c>
       <c r="D31" s="58" t="s">
@@ -3267,9 +3481,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="32"/>
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="32">
+        <v>3</v>
+      </c>
       <c r="C32" s="57" t="s">
         <v>116</v>
       </c>
@@ -3287,9 +3505,13 @@
       </c>
       <c r="H32" s="48"/>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="32"/>
+    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="32">
+        <v>3</v>
+      </c>
       <c r="C33" s="57" t="s">
         <v>135</v>
       </c>
@@ -3307,9 +3529,13 @@
       </c>
       <c r="H33" s="48"/>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="32"/>
+    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>32</v>
+      </c>
+      <c r="B34" s="32">
+        <v>3</v>
+      </c>
       <c r="C34" s="45" t="s">
         <v>101</v>
       </c>
@@ -3327,9 +3553,13 @@
       </c>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="32"/>
+    <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="32">
+        <v>3</v>
+      </c>
       <c r="C35" s="57" t="s">
         <v>116</v>
       </c>
@@ -3347,8 +3577,10 @@
       </c>
       <c r="H35" s="48"/>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
       <c r="B36" s="32">
         <v>3</v>
       </c>
@@ -3371,8 +3603,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>35</v>
+      </c>
       <c r="B37" s="32">
         <v>3</v>
       </c>
@@ -3395,9 +3629,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="32"/>
+    <row r="38" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="32">
+        <v>3</v>
+      </c>
       <c r="C38" s="57" t="s">
         <v>116</v>
       </c>
@@ -3417,8 +3655,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
       <c r="B39" s="21">
         <v>3</v>
       </c>
@@ -3441,8 +3681,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>38</v>
+      </c>
       <c r="B40" s="21">
         <v>3</v>
       </c>
@@ -3465,9 +3707,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <v>14</v>
+    <row r="41" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>39</v>
       </c>
       <c r="B41" s="21">
         <v>3</v>
@@ -3491,9 +3733,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B42" s="21">
         <v>3</v>
@@ -3517,9 +3759,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B43" s="21">
         <v>3</v>
@@ -3543,9 +3785,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B44" s="21">
         <v>3</v>
@@ -3569,9 +3811,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
-        <v>18</v>
+    <row r="45" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>43</v>
       </c>
       <c r="B45" s="21">
         <v>3</v>
@@ -3595,8 +3837,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>44</v>
+      </c>
       <c r="B46" s="21">
         <v>4</v>
       </c>
@@ -3619,10 +3863,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="65" t="s">
+    <row r="47" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="21">
+        <v>4</v>
+      </c>
+      <c r="C47" s="62" t="s">
         <v>141</v>
       </c>
       <c r="D47" s="44" t="s">
@@ -3641,10 +3889,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="65" t="s">
+    <row r="48" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="21">
+        <v>4</v>
+      </c>
+      <c r="C48" s="62" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="44" t="s">
@@ -3659,108 +3911,117 @@
       <c r="G48" s="23">
         <v>43777</v>
       </c>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="21"/>
+      <c r="H48" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
+        <v>47</v>
+      </c>
+      <c r="B49" s="21">
+        <v>4</v>
+      </c>
       <c r="C49" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="47"/>
+      <c r="D49" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="F49" s="23">
         <v>43774</v>
       </c>
       <c r="G49" s="23">
         <v>43777</v>
       </c>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B50" s="21">
         <v>4</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="15" t="s">
+      <c r="C50" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="47" t="s">
         <v>34</v>
       </c>
       <c r="F50" s="23">
-        <v>43778</v>
+        <v>43774</v>
       </c>
       <c r="G50" s="23">
-        <v>43778</v>
+        <v>43777</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" s="48"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
-        <v>20</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>49</v>
       </c>
       <c r="B51" s="21">
         <v>4</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="15" t="s">
+      <c r="C51" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="47" t="s">
         <v>34</v>
       </c>
       <c r="F51" s="23">
-        <v>43778</v>
+        <v>43774</v>
       </c>
       <c r="G51" s="23">
-        <v>43778</v>
+        <v>43777</v>
       </c>
       <c r="H51" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
         <v>50</v>
-      </c>
-      <c r="I51" s="48"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
-        <v>21</v>
       </c>
       <c r="B52" s="21">
         <v>4</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="15" t="s">
+      <c r="C52" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="47" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="23">
-        <v>43778</v>
+        <v>43774</v>
       </c>
       <c r="G52" s="23">
-        <v>43778</v>
+        <v>43777</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I52" s="48"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
-        <v>22</v>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>51</v>
       </c>
       <c r="B53" s="21">
         <v>4</v>
@@ -3769,7 +4030,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>34</v>
@@ -3785,9 +4046,9 @@
       </c>
       <c r="I53" s="48"/>
     </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B54" s="21">
         <v>4</v>
@@ -3796,7 +4057,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>34</v>
@@ -3812,9 +4073,9 @@
       </c>
       <c r="I54" s="48"/>
     </row>
-    <row r="55" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B55" s="21">
         <v>4</v>
@@ -3823,7 +4084,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>34</v>
@@ -3835,154 +4096,157 @@
         <v>43778</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I55" s="48"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B56" s="21">
         <v>4</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F56" s="23">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="G56" s="23">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
-        <v>26</v>
+      <c r="I56" s="48"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>55</v>
       </c>
       <c r="B57" s="21">
         <v>4</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F57" s="23">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="G57" s="23">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="H57" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
-        <v>27</v>
+      <c r="I57" s="48"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
+        <v>56</v>
       </c>
       <c r="B58" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>67</v>
+      <c r="F58" s="23">
+        <v>43778</v>
+      </c>
+      <c r="G58" s="23">
+        <v>43778</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14">
-        <v>28</v>
-      </c>
-      <c r="B59" s="24">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="I58" s="25"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="21">
+        <v>4</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>67</v>
+      <c r="F59" s="23">
+        <v>43780</v>
+      </c>
+      <c r="G59" s="23">
+        <v>43780</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I59" s="25"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B60" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>67</v>
+      <c r="F60" s="23">
+        <v>43780</v>
+      </c>
+      <c r="G60" s="23">
+        <v>43780</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B61" s="21">
         <v>5</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>34</v>
@@ -3997,18 +4261,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14">
-        <v>31</v>
-      </c>
-      <c r="B62" s="21">
+    <row r="62" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="24">
         <v>5</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>34</v>
@@ -4016,27 +4280,27 @@
       <c r="F62" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="23" t="s">
         <v>67</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B63" s="21">
         <v>5</v>
       </c>
-      <c r="C63" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="41" t="s">
+      <c r="C63" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F63" s="23" t="s">
@@ -4046,115 +4310,193 @@
         <v>67</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B64" s="21">
         <v>5</v>
       </c>
-      <c r="C64" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="41" t="s">
+      <c r="C64" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F64" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="G64" s="23" t="s">
         <v>67</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14">
-        <v>34</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>63</v>
       </c>
       <c r="B65" s="21">
         <v>5</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B66" s="21">
         <v>5</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>81</v>
+      <c r="C66" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B67" s="21">
         <v>5</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+    <row r="68" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="21">
+        <v>5</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+      <c r="B69" s="21">
+        <v>5</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14">
+        <v>68</v>
+      </c>
+      <c r="B70" s="21">
+        <v>5</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
